--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6706D995-51F1-431B-A8A0-2A7529822D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B31A311-886E-4F3A-833D-E6EDE5CA7857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,12 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -953,6 +947,12 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
   <si>
     <t>Dividend</t>
@@ -1514,7 +1514,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2149,6 +2149,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3563,7 +3564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3574,29 +3575,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3612,23 +3613,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3636,15 +3638,15 @@
         <v>21481669957</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3652,7 +3654,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3660,7 +3662,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3668,15 +3670,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3690,25 +3692,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3717,16 +3719,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3735,7 +3737,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3866,7 +3868,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>3730</v>
@@ -4165,11 +4167,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7853864075990075E-2</v>
+        <v>0.30771313140516043</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4214,7 +4216,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4624,7 +4626,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4632,7 +4634,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>266</v>
@@ -4642,11 +4644,11 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4660,10 +4662,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4712,7 +4714,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4733,7 +4735,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4751,7 +4753,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4858,7 +4860,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4894,8 +4896,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4938,17 +4940,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>0941.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>71.95</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4958,40 +4960,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>中国移动</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>21481669957</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>1545606.1534061502</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>317499.07622823527</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5014,11 +5016,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5038,7 +5040,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0734576781590779</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5081,7 +5083,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5131,7 +5133,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5171,7 +5173,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5205,7 +5207,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0404445281853016</v>
+        <v>0.2294285631286164</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5221,12 +5223,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>4.276502653833357E-2</v>
+        <v>0.19393678473488463</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5253,7 +5255,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7853864075990075E-2</v>
+        <v>0.30771313140516043</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5270,12 +5272,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5283,22 +5285,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>39.788881215142169</v>
+        <v>102.08927207209575</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>76.481415548466899</v>
+        <v>196.23401819639611</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>46.81044848840255</v>
-      </c>
-      <c r="G29" s="271">
+        <v>120.10502596717147</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>66.505578737797308</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>170.63827669251836</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5346,7 +5348,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5356,7 +5358,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5383,7 +5385,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6329,12 +6331,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6820,7 +6819,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6871,7 +6870,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6922,7 +6921,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6973,7 +6972,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7075,7 +7074,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7228,7 +7227,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8299,7 +8298,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8368,7 +8367,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8572,7 +8571,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10395,11 +10394,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25603.116998055219</v>
+        <v>-23676.150000000023</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0185011131819957</v>
+        <v>1.017108664187145</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11466,7 +11465,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11486,11 +11485,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0404445281853016</v>
+        <v>1</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4499.92258440143</v>
+        <v>4325</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11522,11 +11521,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>95670</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11537,11 +11536,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11553,11 +11552,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11771,19 +11770,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11793,18 +11792,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11881,7 +11880,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11941,7 +11940,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12004,7 +12003,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12034,7 +12033,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12171,17 +12170,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.276502653833357E-2</v>
+        <v>0.19393678473488463</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.276502653833357E-2</v>
+        <v>0.19393678473488463</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.276502653833357E-2</v>
+        <v>0.19393678473488463</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12222,17 +12221,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7853864075990075E-2</v>
+        <v>0.30771313140516043</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7853864075990075E-2</v>
+        <v>0.30771313140516043</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7853864075990075E-2</v>
+        <v>0.30771313140516043</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12263,15 +12262,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12292,14 +12291,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>52.688924296975891</v>
+        <v>96.584800084932169</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>52.688924296975891</v>
+        <v>96.584800084932169</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12317,14 +12316,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>94.152532017246955</v>
+        <v>241.5741072339444</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>94.152532017246955</v>
+        <v>241.5741072339444</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12350,7 +12349,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12367,21 +12366,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>562727.53997703083</v>
+        <v>1031543.6816402553</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>26.195707368349218</v>
+        <v>48.019715585664571</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>26.195707368349218</v>
+        <v>48.019715585664571</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.217346452249274</v>
+        <v>68.223635512491782</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12391,14 +12390,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4830.4764493471566</v>
+        <v>4325</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.22486503419037501</v>
+        <v>0.2013344404162889</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12430,27 +12429,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>557897.06352768373</v>
+        <v>1027218.6816402553</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>22.075215984035015</v>
+        <v>40.645623973461035</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>25.970842334158842</v>
+        <v>47.818381145248281</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>25.970842334158842</v>
+        <v>47.818381145248281</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>25.970842334158842</v>
+        <v>47.818381145248281</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>36.992481418058901</v>
+        <v>68.022301072075493</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12474,7 +12473,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12491,27 +12490,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1005566.6049670131</v>
+        <v>2580056.5280036922</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>39.788881215142169</v>
+        <v>102.08927207209575</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>46.81044848840255</v>
+        <v>120.10502596717147</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>46.81044848840255</v>
+        <v>120.10502596717147</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>46.81044848840255</v>
+        <v>120.10502596717147</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>66.505578737797308</v>
+        <v>170.63827669251836</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12535,7 +12534,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12552,27 +12551,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>781731.83424734836</v>
+        <v>1803637.6048219737</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>30.93204859958859</v>
+        <v>71.36744802277839</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>36.390645411280694</v>
+        <v>83.961703556209869</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>36.390645411280694</v>
+        <v>83.961703556209869</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>36.390645411280694</v>
+        <v>83.961703556209869</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>51.749030077928104</v>
+        <v>119.33028888229693</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B31A311-886E-4F3A-833D-E6EDE5CA7857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E18B98-51FE-49BC-A24C-98EFA4125807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -931,6 +928,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1514,7 +1515,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2150,6 +2151,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3564,7 +3568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3578,12 +3582,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>259</v>
@@ -3591,7 +3595,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>260</v>
@@ -3615,7 +3619,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3624,7 +3628,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>261</v>
@@ -3632,7 +3636,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>21481669957</v>
@@ -3640,7 +3644,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>262</v>
@@ -3664,7 +3668,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3672,7 +3676,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>263</v>
@@ -3689,7 +3693,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>264</v>
@@ -3698,7 +3702,7 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
         <v>264</v>
@@ -3707,7 +3711,7 @@
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>264</v>
@@ -3716,7 +3720,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>264</v>
@@ -3725,7 +3729,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>264</v>
@@ -3734,7 +3738,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>265</v>
@@ -3868,7 +3872,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="151">
         <v>3730</v>
@@ -4148,7 +4152,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>2.175+2.373</f>
@@ -4167,11 +4171,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.30771313140516043</v>
+        <v>6.7535828396492484E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4216,13 +4220,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4606,7 +4610,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59">
         <v>1379544</v>
@@ -4626,7 +4630,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4634,7 +4638,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>266</v>
@@ -4644,16 +4648,16 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4662,10 +4666,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4714,7 +4718,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4735,7 +4739,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4753,7 +4757,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4810,7 +4814,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4897,7 +4901,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4938,19 +4942,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0941.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>72.3</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4958,42 +4962,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>中国移动</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>21481669957</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>317499.07622823527</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>1553124.7378910999</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5016,16 +5020,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5040,7 +5044,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0736236572265625</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5050,40 +5054,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5096,29 +5100,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5128,12 +5132,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5143,7 +5147,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5151,7 +5155,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5165,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5173,7 +5177,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5184,14 +5188,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>2.2325505205376484E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,11 +5207,11 @@
         <v>2.2215198715160572E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.2294285631286164</v>
+        <v>1.0453441272626729</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5219,16 +5223,16 @@
         <v>3.6955976811858409E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.19393678473488463</v>
+        <v>258</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>23.493710198593874</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5251,11 +5255,11 @@
         <v>8.1342449801464822E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>0.30771313140516043</v>
+        <v>6.7535828396492484E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5272,12 +5276,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5285,42 +5289,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>102.08927207209575</v>
+        <v>39.735808527717985</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>196.23401819639611</v>
+        <v>76.379400258335593</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>120.10502596717147</v>
-      </c>
-      <c r="G29" s="272">
+        <v>46.748010032609393</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>170.63827669251836</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>66.416869789857046</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5330,7 +5334,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5341,14 +5345,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5358,7 +5362,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5368,14 +5372,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5385,7 +5389,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5400,14 +5404,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6392,16 +6396,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6419,7 +6423,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6452,7 +6456,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6819,7 +6823,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6870,7 +6874,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6921,7 +6925,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6972,7 +6976,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7074,7 +7078,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7227,7 +7231,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8298,7 +8302,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8367,7 +8371,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8571,7 +8575,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10394,11 +10398,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-23676.150000000023</v>
+        <v>-25629.826684543983</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.017108664187145</v>
+        <v>1.0185204139152939</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10469,7 +10473,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11465,7 +11469,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>P/B Approach</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11485,11 +11489,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
+        <v>1.0453441272626729</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4325</v>
+        <v>4521.1133504110603</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11521,11 +11525,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>95670</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11536,11 +11540,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11552,11 +11556,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11770,19 +11774,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11792,18 +11796,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11880,7 +11884,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11940,7 +11944,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12003,7 +12007,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12033,7 +12037,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12166,28 +12170,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.19393678473488463</v>
+        <v>4.2564583948083733E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.19393678473488463</v>
+        <v>4.2564583948083733E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.19393678473488463</v>
+        <v>4.2564583948083733E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12217,21 +12221,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.30771313140516043</v>
+        <v>6.7535828396492484E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.30771313140516043</v>
+        <v>6.7535828396492484E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.30771313140516043</v>
+        <v>6.7535828396492484E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12262,15 +12266,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12287,24 +12291,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>96.584800084932169</v>
+        <v>52.64644284164671</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>96.584800084932169</v>
+        <v>52.64644284164671</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12312,18 +12316,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>241.5741072339444</v>
+        <v>94.026945980410986</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>241.5741072339444</v>
+        <v>94.026945980410986</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12342,14 +12346,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12366,21 +12370,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1031543.6816402553</v>
+        <v>562273.83010971057</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>48.019715585664571</v>
+        <v>26.174586577077935</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>48.019715585664571</v>
+        <v>26.174586577077935</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>68.223635512491782</v>
+        <v>37.187339253167536</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12390,14 +12394,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4325</v>
+        <v>4853.9742500041593</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.2013344404162889</v>
+        <v>0.22595888772708972</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12429,27 +12433,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1027218.6816402553</v>
+        <v>557419.85585970641</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>40.645623973461035</v>
+        <v>22.05633353594822</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>47.818381145248281</v>
+        <v>25.948627689350847</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>47.818381145248281</v>
+        <v>25.948627689350847</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>47.818381145248281</v>
+        <v>25.948627689350847</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>68.022301072075493</v>
+        <v>36.961380365440448</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12466,14 +12470,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12490,27 +12494,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2580056.5280036922</v>
+        <v>1004225.3226670398</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>102.08927207209575</v>
+        <v>39.735808527717985</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>120.10502596717147</v>
+        <v>46.748010032609393</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>120.10502596717147</v>
+        <v>46.748010032609393</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>120.10502596717147</v>
+        <v>46.748010032609393</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>170.63827669251836</v>
+        <v>66.416869789857046</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12520,21 +12524,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12547,31 +12551,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1803637.6048219737</v>
+        <v>780822.58926337317</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>71.36744802277839</v>
+        <v>30.896071031833102</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>83.961703556209869</v>
+        <v>36.348318860980122</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>83.961703556209869</v>
+        <v>36.348318860980122</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>83.961703556209869</v>
+        <v>36.348318860980122</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>119.33028888229693</v>
+        <v>51.689125077648747</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E18B98-51FE-49BC-A24C-98EFA4125807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78166B7E-F5FA-4439-8949-2D63BA37BC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -957,6 +954,10 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3582,28 +3583,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45603</v>
@@ -3611,7 +3612,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3619,24 +3620,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>21481669957</v>
@@ -3644,15 +3645,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3660,7 +3661,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000000</v>
@@ -3668,7 +3669,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3676,15 +3677,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3693,61 +3694,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3796,7 +3797,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>1009309</v>
@@ -3816,7 +3817,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>0</v>
@@ -3836,7 +3837,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>874963</v>
@@ -3856,7 +3857,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3872,7 +3873,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" s="151">
         <v>3730</v>
@@ -3892,7 +3893,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>169</v>
@@ -3912,7 +3913,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151">
         <v>22422</v>
@@ -3932,7 +3933,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151">
         <v>207132</v>
@@ -3952,7 +3953,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151">
         <v>181263</v>
@@ -3972,7 +3973,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151">
@@ -3990,7 +3991,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151">
@@ -4008,7 +4009,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151">
@@ -4026,7 +4027,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151">
@@ -4044,7 +4045,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151">
@@ -4062,7 +4063,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151">
@@ -4080,7 +4081,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151">
@@ -4098,7 +4099,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151">
@@ -4116,7 +4117,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151">
@@ -4134,7 +4135,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151">
@@ -4152,7 +4153,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <f>2.175+2.373</f>
@@ -4171,11 +4172,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7535828396492484E-2</v>
+        <v>6.7507743630854739E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4220,21 +4221,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59">
         <v>172891</v>
@@ -4246,7 +4247,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4256,7 +4257,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59">
         <v>100939</v>
@@ -4269,7 +4270,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59">
         <v>176336</v>
@@ -4281,7 +4282,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59">
         <v>19344</v>
@@ -4293,7 +4294,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59">
         <v>22728</v>
@@ -4306,7 +4307,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59">
         <v>28822</v>
@@ -4318,7 +4319,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59">
         <v>12616</v>
@@ -4331,7 +4332,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4339,24 +4340,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59">
         <v>507</v>
@@ -4369,7 +4370,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4380,7 +4381,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59">
         <v>75495</v>
@@ -4393,7 +4394,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59">
         <v>182795</v>
@@ -4406,7 +4407,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59">
         <v>5625</v>
@@ -4419,7 +4420,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4430,7 +4431,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4440,7 +4441,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59">
         <v>185013</v>
@@ -4449,24 +4450,24 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59">
         <v>94862</v>
@@ -4476,12 +4477,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59">
         <v>781712</v>
@@ -4494,7 +4495,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4505,7 +4506,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59">
         <v>34291</v>
@@ -4517,7 +4518,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59">
         <v>47891</v>
@@ -4530,7 +4531,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248">
         <v>79740</v>
@@ -4542,13 +4543,13 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59">
         <v>33448</v>
@@ -4556,19 +4557,19 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83">
         <v>554255</v>
@@ -4576,13 +4577,13 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59">
         <v>62222</v>
@@ -4590,19 +4591,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83">
         <v>83483</v>
@@ -4610,7 +4611,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59">
         <v>1379544</v>
@@ -4618,19 +4619,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4638,15 +4639,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4654,10 +4655,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4667,19 +4668,19 @@
         <v>(Numbers in 1000000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4697,7 +4698,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4718,7 +4719,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4739,7 +4740,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4757,7 +4758,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4778,7 +4779,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4796,7 +4797,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4814,7 +4815,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4942,7 +4943,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4954,15 +4955,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>72.3</v>
+        <v>72.25</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4971,7 +4972,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4982,7 +4983,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4991,11 +4992,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1553124.7378910999</v>
+        <v>1552050.6543932499</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5003,7 +5004,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -5018,7 +5019,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -5029,7 +5030,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5041,10 +5042,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0736236572265625</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5054,40 +5055,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5100,29 +5101,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5132,12 +5133,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5147,29 +5148,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5177,7 +5178,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5188,58 +5189,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>2.2325505205376484E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>2.2215198715160572E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0453441272626729</v>
+        <v>1.0457790143325996</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>3.6955976811858409E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.493710198593874</v>
+        <v>23.503484119471707</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>2.5630406545468234E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5248,61 +5249,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>8.1342449801464822E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7535828396492484E-2</v>
+        <v>6.7507743630854739E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>39.735808527717985</v>
+        <v>39.686595219098614</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>76.379400258335593</v>
+        <v>76.284803391269094</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>46.748010032609393</v>
+        <v>46.690112022468959</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>66.416869789857046</v>
+        <v>66.334611644581827</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5310,21 +5311,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5334,7 +5335,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5345,14 +5346,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5362,7 +5363,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5372,14 +5373,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5389,7 +5390,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5404,14 +5405,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6391,21 +6392,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6416,14 +6417,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6445,7 +6446,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6456,7 +6457,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6467,7 +6468,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6517,7 +6518,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6568,7 +6569,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6619,7 +6620,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6670,7 +6671,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6721,7 +6722,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6772,7 +6773,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6823,7 +6824,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6874,7 +6875,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6925,7 +6926,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6976,7 +6977,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7027,7 +7028,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7078,7 +7079,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7129,7 +7130,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7180,7 +7181,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7231,7 +7232,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7282,7 +7283,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7333,7 +7334,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7384,7 +7385,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7435,7 +7436,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7486,7 +7487,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7537,7 +7538,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7588,7 +7589,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7639,7 +7640,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7690,7 +7691,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7741,7 +7742,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7792,7 +7793,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7843,7 +7844,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7894,7 +7895,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7945,7 +7946,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7996,7 +7997,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -8047,7 +8048,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8098,7 +8099,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8149,7 +8150,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8200,7 +8201,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8251,7 +8252,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8302,7 +8303,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8320,7 +8321,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8371,7 +8372,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8422,7 +8423,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8473,7 +8474,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8524,7 +8525,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8575,7 +8576,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8626,7 +8627,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8677,7 +8678,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8695,7 +8696,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8746,7 +8747,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8797,7 +8798,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8814,7 +8815,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8864,7 +8865,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8914,7 +8915,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8964,7 +8965,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10323,7 +10324,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10333,12 +10334,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10352,7 +10353,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10362,7 +10363,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10380,10 +10381,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10393,21 +10394,21 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25629.826684543983</v>
+        <v>-25603.468385712247</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0185204139152939</v>
+        <v>1.0185013670988454</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10418,7 +10419,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10430,7 +10431,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10448,7 +10449,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10467,32 +10468,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10509,7 +10510,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10520,7 +10521,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10537,7 +10538,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10548,7 +10549,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10565,7 +10566,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10576,7 +10577,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10593,7 +10594,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10604,7 +10605,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10621,7 +10622,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10631,7 +10632,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10653,7 +10654,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10675,7 +10676,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10696,7 +10697,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10721,7 +10722,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10748,7 +10749,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10769,7 +10770,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10786,7 +10787,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10798,13 +10799,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10826,7 +10827,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10846,7 +10847,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10855,7 +10856,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10875,7 +10876,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10888,7 +10889,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10908,7 +10909,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10921,7 +10922,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10938,7 +10939,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10954,7 +10955,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10963,7 +10964,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10979,7 +10980,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10989,7 +10990,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11006,7 +11007,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11016,7 +11017,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11033,7 +11034,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11043,7 +11044,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11063,7 +11064,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11073,7 +11074,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11090,7 +11091,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11100,7 +11101,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11126,7 +11127,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11153,7 +11154,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11180,7 +11181,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11201,7 +11202,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11222,7 +11223,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11243,7 +11244,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11264,7 +11265,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11281,7 +11282,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11299,7 +11300,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11318,7 +11319,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11337,7 +11338,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11354,7 +11355,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11367,7 +11368,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11384,7 +11385,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11397,7 +11398,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11414,7 +11415,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11424,7 +11425,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11441,7 +11442,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11457,14 +11458,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11476,12 +11477,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11489,11 +11490,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0453441272626729</v>
+        <v>1.0457790143325996</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4521.1133504110603</v>
+        <v>4522.994236988493</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11511,7 +11512,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11522,7 +11523,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11537,7 +11538,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11548,12 +11549,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11577,11 +11578,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11591,7 +11592,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11612,7 +11613,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11633,7 +11634,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11654,7 +11655,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11669,7 +11670,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11700,11 +11701,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11714,7 +11715,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11735,7 +11736,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11750,7 +11751,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11772,7 +11773,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11780,15 +11781,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11797,22 +11798,22 @@
         <v>(Numbers in 1000000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11833,7 +11834,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11863,7 +11864,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11884,7 +11885,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11914,7 +11915,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11944,7 +11945,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11975,7 +11976,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12002,12 +12003,12 @@
         <v>2.2215198715160572E-2</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12037,7 +12038,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12067,7 +12068,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12097,7 +12098,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12118,7 +12119,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12149,7 +12150,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12170,28 +12171,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2564583948083733E-2</v>
+        <v>4.2546883471269677E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2564583948083733E-2</v>
+        <v>4.2546883471269677E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2564583948083733E-2</v>
+        <v>4.2546883471269677E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12221,21 +12222,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7535828396492484E-2</v>
+        <v>6.7507743630854739E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7535828396492484E-2</v>
+        <v>6.7507743630854739E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7535828396492484E-2</v>
+        <v>6.7507743630854739E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12252,27 +12253,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12291,24 +12292,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>52.64644284164671</v>
+        <v>52.583692626656038</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>52.64644284164671</v>
+        <v>52.583692626656038</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12316,18 +12317,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>94.026945980410986</v>
+        <v>93.910492401573066</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>94.026945980410986</v>
+        <v>93.910492401573066</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12346,69 +12347,69 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>562273.83010971057</v>
+        <v>561603.64610831207</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>26.174586577077935</v>
+        <v>26.143388630049607</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>26.174586577077935</v>
+        <v>26.143388630049607</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.187339253167536</v>
+        <v>37.143015013824602</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4853.9742500041593</v>
+        <v>4850.617421338874</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.22595888772708972</v>
+        <v>0.22580262293613051</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12429,31 +12430,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>557419.85585970641</v>
+        <v>556753.02868697315</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>22.05633353594822</v>
+        <v>22.029948106046454</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>25.948627689350847</v>
+        <v>25.917586007113478</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>25.948627689350847</v>
+        <v>25.917586007113478</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>25.948627689350847</v>
+        <v>25.917586007113474</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>36.961380365440448</v>
+        <v>36.917212390888473</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12463,58 +12464,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1004225.3226670398</v>
+        <v>1002981.5767220359</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>39.735808527717985</v>
+        <v>39.686595219098614</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>46.748010032609393</v>
+        <v>46.690112022468959</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>46.748010032609393</v>
+        <v>46.690112022468959</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>46.748010032609393</v>
+        <v>46.690112022468959</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>66.416869789857046</v>
+        <v>66.334611644581827</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12524,58 +12525,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>780822.58926337317</v>
+        <v>779867.30270450457</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>30.896071031833102</v>
+        <v>30.858271662572534</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>36.348318860980122</v>
+        <v>36.303849014791219</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>36.348318860980122</v>
+        <v>36.303849014791219</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>36.348318860980122</v>
+        <v>36.303849014791219</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>51.689125077648747</v>
+        <v>51.625912017735146</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12584,7 +12585,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78166B7E-F5FA-4439-8949-2D63BA37BC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F980F3A9-4FA8-4ED4-BF8D-F952498B57D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7507743630854739E-2</v>
+        <v>6.7599207930323646E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4865,7 +4865,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4955,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>72.25</v>
+        <v>72.150000000000006</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1552050.6543932499</v>
+        <v>1549902.4873975501</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5045,7 +5045,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0457790143325996</v>
+        <v>1.0443640355499513</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.503484119471707</v>
+        <v>23.471683011501884</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7507743630854739E-2</v>
+        <v>6.7599207930323646E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5290,20 +5290,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>39.686595219098614</v>
+        <v>39.7023656453744</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>76.284803391269094</v>
+        <v>76.315116998702635</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>46.690112022468959</v>
+        <v>46.708665465146353</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>66.334611644581827</v>
+        <v>66.360971303219685</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10399,11 +10399,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25603.468385712247</v>
+        <v>-25596.109583011115</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0185013670988454</v>
+        <v>1.0184960495415469</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11490,11 +11490,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0457790143325996</v>
+        <v>1.0443640355499513</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4522.994236988493</v>
+        <v>4516.8744537535395</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12175,17 +12175,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2546883471269677E-2</v>
+        <v>4.2604529019498412E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2546883471269677E-2</v>
+        <v>4.2604529019498412E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2546883471269677E-2</v>
+        <v>4.2604529019498412E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12226,17 +12226,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7507743630854739E-2</v>
+        <v>6.7599207930323646E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7507743630854739E-2</v>
+        <v>6.7599207930323646E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7507743630854739E-2</v>
+        <v>6.7599207930323646E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12296,14 +12296,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>52.583692626656038</v>
+        <v>52.596596660819813</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>52.583692626656038</v>
+        <v>52.596596660819813</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12321,14 +12321,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>93.910492401573066</v>
+        <v>93.947810001855117</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>93.910492401573066</v>
+        <v>93.947810001855117</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12371,21 +12371,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>561603.64610831207</v>
+        <v>561741.46360027359</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>26.143388630049607</v>
+        <v>26.149804215627331</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>26.143388630049607</v>
+        <v>26.149804215627331</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.143015013824602</v>
+        <v>37.152129906878748</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12395,14 +12395,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4850.617421338874</v>
+        <v>4843.9037640083016</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.22580262293613051</v>
+        <v>0.22549009335421202</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12434,27 +12434,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>556753.02868697315</v>
+        <v>556897.55983626528</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>22.029948106046454</v>
+        <v>22.035667003932147</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>25.917586007113478</v>
+        <v>25.92431412227312</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>25.917586007113478</v>
+        <v>25.924314122273117</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>25.917586007113474</v>
+        <v>25.924314122273117</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>36.917212390888473</v>
+        <v>36.926639813524538</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12495,27 +12495,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1002981.5767220359</v>
+        <v>1003380.1356541979</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>39.686595219098614</v>
+        <v>39.7023656453744</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>46.690112022468959</v>
+        <v>46.708665465146353</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>46.690112022468959</v>
+        <v>46.708665465146353</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>46.690112022468959</v>
+        <v>46.708665465146353</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>66.334611644581827</v>
+        <v>66.360971303219685</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12556,27 +12556,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>779867.30270450457</v>
+        <v>780138.84774523159</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>30.858271662572534</v>
+        <v>30.869016324653273</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>36.303849014791219</v>
+        <v>36.316489793709735</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>36.303849014791219</v>
+        <v>36.316489793709735</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>36.303849014791219</v>
+        <v>36.316489793709735</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>51.625912017735146</v>
+        <v>51.643805558372108</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F980F3A9-4FA8-4ED4-BF8D-F952498B57D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1E314CE-40D4-47EE-A5E9-1C5BA12959A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7599207930323646E-2</v>
+        <v>6.751194086701813E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4955,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>72.150000000000006</v>
+        <v>72.25</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1549902.4873975501</v>
+        <v>1552050.6543932499</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5045,7 +5045,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0443640355499513</v>
+        <v>1.0457139979600658</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.471683011501884</v>
+        <v>23.502022901319108</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7599207930323646E-2</v>
+        <v>6.751194086701813E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5290,20 +5290,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>39.7023656453744</v>
+        <v>39.689842954311253</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>76.315116998702635</v>
+        <v>76.291046124887245</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>46.708665465146353</v>
+        <v>46.693932887425007</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>66.360971303219685</v>
+        <v>66.340040108597606</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10399,11 +10399,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25596.109583011115</v>
+        <v>-25604.758676453377</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0184960495415469</v>
+        <v>1.0185022994780961</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11490,11 +11490,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0443640355499513</v>
+        <v>1.0457139979600658</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4516.8744537535395</v>
+        <v>4522.713041177285</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12175,17 +12175,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2604529019498412E-2</v>
+        <v>4.2549528787322925E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2604529019498412E-2</v>
+        <v>4.2549528787322925E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2604529019498412E-2</v>
+        <v>4.2549528787322925E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12226,17 +12226,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7599207930323646E-2</v>
+        <v>6.751194086701813E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7599207930323646E-2</v>
+        <v>6.751194086701813E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7599207930323646E-2</v>
+        <v>6.751194086701813E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12296,14 +12296,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>52.596596660819813</v>
+        <v>52.587629136202011</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>52.596596660819813</v>
+        <v>52.587629136202011</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12321,14 +12321,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>93.947810001855117</v>
+        <v>93.918177525764889</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>93.947810001855117</v>
+        <v>93.918177525764889</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12371,21 +12371,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>561741.46360027359</v>
+        <v>561645.68876457156</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>26.149804215627331</v>
+        <v>26.145345771014146</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>26.149804215627331</v>
+        <v>26.145345771014146</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.152129906878748</v>
+        <v>37.145795606549541</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12395,14 +12395,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4843.9037640083016</v>
+        <v>4850.617421338874</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.22549009335421202</v>
+        <v>0.22580262293613051</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12434,27 +12434,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>556897.55983626528</v>
+        <v>556795.07134323264</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>22.035667003932147</v>
+        <v>22.031611675866312</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>25.92431412227312</v>
+        <v>25.919543148078017</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>25.924314122273117</v>
+        <v>25.919543148078013</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>25.924314122273117</v>
+        <v>25.919543148078013</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>36.926639813524538</v>
+        <v>36.919992983613412</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12495,27 +12495,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1003380.1356541979</v>
+        <v>1003063.655281972</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>39.7023656453744</v>
+        <v>39.689842954311253</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>46.708665465146353</v>
+        <v>46.693932887425007</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>46.708665465146353</v>
+        <v>46.693932887425007</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>46.708665465146353</v>
+        <v>46.693932887425007</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>66.360971303219685</v>
+        <v>66.340040108597606</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12556,27 +12556,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>780138.84774523159</v>
+        <v>779929.36331260239</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>30.869016324653273</v>
+        <v>30.860727315088781</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>36.316489793709735</v>
+        <v>36.306738017751513</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>36.316489793709735</v>
+        <v>36.306738017751513</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>36.316489793709735</v>
+        <v>36.306738017751513</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>51.643805558372108</v>
+        <v>51.630016546105509</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1E314CE-40D4-47EE-A5E9-1C5BA12959A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CEF6C78-0E69-46B5-8D7E-6F57E6EA7590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.751194086701813E-2</v>
+        <v>6.7509842248936414E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5045,7 +5045,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0457139979600658</v>
+        <v>1.0457465051357799</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.502022901319108</v>
+        <v>23.50275348768362</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.751194086701813E-2</v>
+        <v>6.7509842248936414E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5290,20 +5290,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>39.689842954311253</v>
+        <v>39.688219073043918</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>76.291046124887245</v>
+        <v>76.287924731819231</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>46.693932887425007</v>
+        <v>46.692022438875199</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>66.340040108597606</v>
+        <v>66.337325853755857</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10399,11 +10399,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25604.758676453377</v>
+        <v>-25604.113531082814</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0185022994780961</v>
+        <v>1.0185018332884708</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11490,11 +11490,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0457139979600658</v>
+        <v>1.0457465051357799</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4522.713041177285</v>
+        <v>4522.8536347122481</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12175,17 +12175,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2549528787322925E-2</v>
+        <v>4.2548206129296294E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2549528787322925E-2</v>
+        <v>4.2548206129296294E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2549528787322925E-2</v>
+        <v>4.2548206129296294E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12226,17 +12226,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.751194086701813E-2</v>
+        <v>6.7509842248936414E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.751194086701813E-2</v>
+        <v>6.7509842248936414E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.751194086701813E-2</v>
+        <v>6.7509842248936414E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12296,14 +12296,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>52.587629136202011</v>
+        <v>52.585660870213189</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>52.587629136202011</v>
+        <v>52.585660870213189</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12321,14 +12321,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>93.918177525764889</v>
+        <v>93.914334931342879</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>93.918177525764889</v>
+        <v>93.914334931342879</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12371,21 +12371,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>561645.68876457156</v>
+        <v>561624.66731665458</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>26.145345771014146</v>
+        <v>26.144367194955624</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>26.145345771014146</v>
+        <v>26.144367194955624</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.145795606549541</v>
+        <v>37.144405302264651</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12434,27 +12434,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>556795.07134323264</v>
+        <v>556774.04989531566</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>22.031611675866312</v>
+        <v>22.030779886216568</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>25.919543148078017</v>
+        <v>25.918564572019495</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>25.919543148078013</v>
+        <v>25.918564572019491</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>25.919543148078013</v>
+        <v>25.918564572019491</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>36.919992983613412</v>
+        <v>36.918602679328522</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12495,27 +12495,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1003063.655281972</v>
+        <v>1003022.6156567553</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>39.689842954311253</v>
+        <v>39.688219073043918</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>46.693932887425007</v>
+        <v>46.692022438875199</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>46.693932887425007</v>
+        <v>46.692022438875199</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>46.693932887425007</v>
+        <v>46.692022438875199</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>66.340040108597606</v>
+        <v>66.337325853755857</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12556,27 +12556,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>779929.36331260239</v>
+        <v>779898.33277603542</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>30.860727315088781</v>
+        <v>30.859499479630244</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>36.306738017751513</v>
+        <v>36.305293505447345</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>36.306738017751513</v>
+        <v>36.305293505447345</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>36.306738017751513</v>
+        <v>36.305293505447345</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>51.630016546105509</v>
+        <v>51.627964266542193</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CEF6C78-0E69-46B5-8D7E-6F57E6EA7590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C911D918-1790-4DBE-96CD-39D5C277DE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7509842248936414E-2</v>
+        <v>6.7507743630854739E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4657,7 +4657,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -5045,7 +5045,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0457465051357799</v>
+        <v>1.0457790143325996</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.50275348768362</v>
+        <v>23.503484119471707</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7509842248936414E-2</v>
+        <v>6.7507743630854739E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5290,20 +5290,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>39.688219073043918</v>
+        <v>39.686595219098614</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>76.287924731819231</v>
+        <v>76.284803391269094</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>46.692022438875199</v>
+        <v>46.690112022468959</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>66.337325853755857</v>
+        <v>66.334611644581827</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10399,11 +10399,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25604.113531082814</v>
+        <v>-25603.468385712247</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0185018332884708</v>
+        <v>1.0185013670988454</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11490,11 +11490,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0457465051357799</v>
+        <v>1.0457790143325996</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4522.8536347122481</v>
+        <v>4522.994236988493</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12175,17 +12175,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2548206129296294E-2</v>
+        <v>4.2546883471269677E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2548206129296294E-2</v>
+        <v>4.2546883471269677E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2548206129296294E-2</v>
+        <v>4.2546883471269677E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12226,17 +12226,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7509842248936414E-2</v>
+        <v>6.7507743630854739E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7509842248936414E-2</v>
+        <v>6.7507743630854739E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7509842248936414E-2</v>
+        <v>6.7507743630854739E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12296,14 +12296,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>52.585660870213189</v>
+        <v>52.583692626656038</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>52.585660870213189</v>
+        <v>52.583692626656038</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12321,14 +12321,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>93.914334931342879</v>
+        <v>93.910492401573066</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>93.914334931342879</v>
+        <v>93.910492401573066</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12371,21 +12371,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>561624.66731665458</v>
+        <v>561603.64610831207</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>26.144367194955624</v>
+        <v>26.143388630049607</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>26.144367194955624</v>
+        <v>26.143388630049607</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.144405302264651</v>
+        <v>37.143015013824602</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12434,27 +12434,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>556774.04989531566</v>
+        <v>556753.02868697315</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>22.030779886216568</v>
+        <v>22.029948106046454</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>25.918564572019495</v>
+        <v>25.917586007113478</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>25.918564572019491</v>
+        <v>25.917586007113478</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>25.918564572019491</v>
+        <v>25.917586007113474</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>36.918602679328522</v>
+        <v>36.917212390888473</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12495,27 +12495,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1003022.6156567553</v>
+        <v>1002981.5767220359</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>39.688219073043918</v>
+        <v>39.686595219098614</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>46.692022438875199</v>
+        <v>46.690112022468959</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>46.692022438875199</v>
+        <v>46.690112022468959</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>46.692022438875199</v>
+        <v>46.690112022468959</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>66.337325853755857</v>
+        <v>66.334611644581827</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12556,27 +12556,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>779898.33277603542</v>
+        <v>779867.30270450457</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>30.859499479630244</v>
+        <v>30.858271662572534</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>36.305293505447345</v>
+        <v>36.303849014791219</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>36.305293505447345</v>
+        <v>36.303849014791219</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>36.305293505447345</v>
+        <v>36.303849014791219</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>51.627964266542193</v>
+        <v>51.625912017735146</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C911D918-1790-4DBE-96CD-39D5C277DE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09267FC0-3FAE-46FA-8CB2-FE0EEFF86598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7507743630854739E-2</v>
+        <v>6.7505645012773036E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5045,7 +5045,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5094,7 +5094,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5141,7 +5141,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0457790143325996</v>
+        <v>1.0458115255507134</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.503484119471707</v>
+        <v>23.504214796687609</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7507743630854739E-2</v>
+        <v>6.7505645012773036E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5290,20 +5290,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>39.686595219098614</v>
+        <v>41.410404931278364</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>76.284803391269094</v>
+        <v>80.721471021206895</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>46.690112022468959</v>
+        <v>48.718123448562785</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>66.334611644581827</v>
+        <v>70.192583496701658</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10399,11 +10399,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25603.468385712247</v>
+        <v>-25602.823240341684</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0185013670988454</v>
+        <v>1.0185009009092203</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11490,11 +11490,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0457790143325996</v>
+        <v>1.0458115255507134</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4522.994236988493</v>
+        <v>4523.1348480068355</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12175,17 +12175,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2546883471269677E-2</v>
+        <v>4.2545560813243052E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2546883471269677E-2</v>
+        <v>4.2545560813243052E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2546883471269677E-2</v>
+        <v>4.2545560813243052E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12226,17 +12226,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7507743630854739E-2</v>
+        <v>6.7505645012773036E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7507743630854739E-2</v>
+        <v>6.7505645012773036E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7507743630854739E-2</v>
+        <v>6.7505645012773036E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12296,14 +12296,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>52.583692626656038</v>
+        <v>54.867886336205594</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>52.583692626656038</v>
+        <v>54.867886336205594</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12321,14 +12321,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>93.910492401573066</v>
+        <v>97.989547759779015</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>93.910492401573066</v>
+        <v>97.989547759779015</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12371,21 +12371,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>561603.64610831207</v>
+        <v>585999.2610151741</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>26.143388630049607</v>
+        <v>27.279036601352345</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>26.143388630049607</v>
+        <v>27.279036601352345</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.143015013824602</v>
+        <v>39.303362256382073</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12434,27 +12434,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>556753.02868697315</v>
+        <v>581148.64359383518</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>22.029948106046454</v>
+        <v>22.995248881653783</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>25.917586007113478</v>
+        <v>27.053233978416216</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>25.917586007113478</v>
+        <v>27.053233978416216</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>25.917586007113474</v>
+        <v>27.053233978416216</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>36.917212390888473</v>
+        <v>39.077559633445944</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12495,27 +12495,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1002981.5767220359</v>
+        <v>1046546.6488464085</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>39.686595219098614</v>
+        <v>41.410404931278364</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>46.690112022468959</v>
+        <v>48.718123448562785</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>46.690112022468959</v>
+        <v>48.718123448562785</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>46.690112022468959</v>
+        <v>48.718123448562785</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>66.334611644581827</v>
+        <v>70.192583496701658</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12556,27 +12556,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>779867.30270450457</v>
+        <v>813847.64622012165</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>30.858271662572534</v>
+        <v>32.202826906466072</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>36.303849014791219</v>
+        <v>37.885678713489497</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>36.303849014791219</v>
+        <v>37.885678713489497</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>36.303849014791219</v>
+        <v>37.885678713489497</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>51.625912017735146</v>
+        <v>54.635071565073801</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09267FC0-3FAE-46FA-8CB2-FE0EEFF86598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F7B691-4C24-44A0-928C-34C243205820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,7 +964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -977,6 +977,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1516,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1816,9 +1817,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2153,6 +2151,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3590,7 +3594,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3598,7 +3602,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3606,7 +3610,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45603</v>
       </c>
     </row>
@@ -3614,7 +3618,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3622,16 +3626,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3639,7 +3643,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>21481669957</v>
       </c>
     </row>
@@ -3647,101 +3651,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>254</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>264</v>
       </c>
       <c r="D22" s="24"/>
@@ -3799,422 +3803,422 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>1009309</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>937259</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>0</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>0</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>874963</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>808160</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>3730</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>2330</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>169</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>135</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151">
+      <c r="C31" s="150">
         <v>22422</v>
       </c>
-      <c r="D31" s="151">
+      <c r="D31" s="150">
         <v>22811</v>
       </c>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151">
+      <c r="C32" s="150">
         <v>207132</v>
       </c>
-      <c r="D32" s="151">
+      <c r="D32" s="150">
         <v>200077</v>
       </c>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151">
+      <c r="C33" s="150">
         <v>181263</v>
       </c>
-      <c r="D33" s="151">
+      <c r="D33" s="150">
         <v>189588</v>
       </c>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151">
+      <c r="C34" s="217"/>
+      <c r="D34" s="150">
         <v>498104</v>
       </c>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151">
+      <c r="C35" s="217"/>
+      <c r="D35" s="150">
         <v>68428</v>
       </c>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151">
+      <c r="C36" s="217"/>
+      <c r="D36" s="150">
         <v>12026</v>
       </c>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151">
+      <c r="C37" s="217"/>
+      <c r="D37" s="150">
         <v>558565</v>
       </c>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151">
+      <c r="C38" s="217"/>
+      <c r="D38" s="150">
         <v>88107</v>
       </c>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151">
+      <c r="C39" s="217"/>
+      <c r="D39" s="150">
         <v>35175</v>
       </c>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151">
+      <c r="C40" s="217"/>
+      <c r="D40" s="150">
         <v>67759</v>
       </c>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151">
+      <c r="C41" s="217"/>
+      <c r="D41" s="150">
         <v>1345985</v>
       </c>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151">
+      <c r="C42" s="217"/>
+      <c r="D42" s="150">
         <v>4253</v>
       </c>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151">
+      <c r="C43" s="217"/>
+      <c r="D43" s="150">
         <v>795161</v>
       </c>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>2.175+2.373</f>
         <v>4.548</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7505645012773036E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>6.7211120072726546E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4223,10 +4227,10 @@
       <c r="B47" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4339,7 +4343,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4351,7 +4355,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4373,7 +4377,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4449,7 +4453,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4461,7 +4465,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4476,7 +4480,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4530,16 +4534,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248">
+      <c r="C72" s="247">
         <v>79740</v>
       </c>
-      <c r="D72" s="249">
+      <c r="D72" s="248">
         <v>0</v>
       </c>
-      <c r="E72" s="250"/>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4633,7 +4637,7 @@
       <c r="B86" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4641,19 +4645,20 @@
       <c r="B87" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>265</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4667,14 +4672,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4686,12 +4691,12 @@
         <f>C25</f>
         <v>1009309</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>1009309</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>1009309</v>
       </c>
@@ -4704,15 +4709,15 @@
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>0</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>0</v>
       </c>
@@ -4725,15 +4730,15 @@
         <f>C27+C28</f>
         <v>874963</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.8668930922046667</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>874963</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>874963</v>
       </c>
@@ -4746,12 +4751,12 @@
         <f>C29</f>
         <v>3730</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>3.6955976811858409E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>3730</v>
       </c>
@@ -4764,15 +4769,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>25869</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>2.5630406545468234E-2</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>25869</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>25869</v>
       </c>
@@ -4785,12 +4790,12 @@
         <f>MAX(C31,0)</f>
         <v>22422</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>2.2215198715160572E-2</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>22422</v>
       </c>
@@ -4803,12 +4808,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>225.33333333333334</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>2.2325505205376484E-4</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>225.33333333333334</v>
       </c>
@@ -4817,16 +4822,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>4.548</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>4.548</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>4.548</v>
       </c>
@@ -4945,17 +4950,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0941.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>72.25</v>
+        <v>72.5</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4965,40 +4970,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>中国移动</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>21481669957</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1552050.6543932499</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>1557421.0718825001</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5006,11 +5011,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -5021,22 +5026,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0010</v>
       </c>
@@ -5045,7 +5050,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5065,7 +5070,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5076,7 +5081,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5090,11 +5095,11 @@
       <c r="B12" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5103,7 +5108,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5114,7 +5119,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5125,10 +5130,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5140,10 +5145,10 @@
       <c r="B17" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5165,14 +5170,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5180,7 +5185,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.8668930922046667</v>
       </c>
@@ -5191,7 +5196,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>2.2325505205376484E-4</v>
       </c>
@@ -5203,46 +5208,46 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>2.2215198715160572E-2</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0458115255507134</v>
+        <v>1.0503943620892127</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.6955976811858409E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>257</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.504214796687609</v>
+        <v>23.607212298385896</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>2.5630406545468234E-2</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>1.5866671803691612</v>
       </c>
@@ -5251,16 +5256,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>8.1342449801464822E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7505645012773036E-2</v>
+        <v>6.7211120072726546E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5279,10 +5284,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>256</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5290,22 +5295,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>41.410404931278364</v>
+        <v>39.593881252607922</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>80.721471021206895</v>
+        <v>76.106590403575879</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>48.718123448562785</v>
-      </c>
-      <c r="G29" s="273">
+        <v>46.581036767774023</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>70.192583496701658</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>66.179643829196422</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5317,17 +5322,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -5337,7 +5342,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="str">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -5345,17 +5350,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -5365,24 +5370,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5392,7 +5397,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>agree</v>
       </c>
@@ -5411,10 +5416,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6396,16 +6401,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6419,11 +6424,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6456,7 +6461,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6520,47 +6525,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1009309</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>937259</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6622,47 +6627,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6673,47 +6678,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1009309</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>937259</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6724,47 +6729,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>874963</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>808160</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6775,47 +6780,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6826,47 +6831,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>225.33333333333334</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>180</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6874,50 +6879,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.13288365274327946</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.1375489592524585</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6925,50 +6930,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>134120.66666666666</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>128919</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6976,50 +6981,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>4.0348332415444249E-2</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7030,47 +7035,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200">
+      <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>22422</v>
       </c>
-      <c r="D16" s="200">
+      <c r="D16" s="199">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>22811</v>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7081,47 +7086,47 @@
       <c r="B17" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>3730</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>2330</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7132,47 +7137,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>0.20522159219822672</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="152">
         <f t="shared" si="6"/>
         <v>0.21347034277611632</v>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7183,47 +7188,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200">
+      <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>207132</v>
       </c>
-      <c r="D19" s="200">
+      <c r="D19" s="199">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>200077</v>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7234,47 +7239,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0.17959118565275847</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0.20227919923948451</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7285,47 +7290,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200">
+      <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>181263</v>
       </c>
-      <c r="D21" s="200">
+      <c r="D21" s="199">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>189588</v>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7336,47 +7341,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>82099.666666666657</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>93289</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7387,47 +7392,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>6.1006837351098617E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>7.4650390126955304E-2</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7438,7 +7443,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>61574.749999999993</v>
       </c>
@@ -7486,50 +7491,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.11994268706206887</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7646,43 +7651,43 @@
         <f>Fin_Analysis!C28</f>
         <v>534183</v>
       </c>
-      <c r="D28" s="200">
+      <c r="D28" s="199">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v>498104</v>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7697,43 +7702,43 @@
         <f>Fin_Analysis!C13</f>
         <v>100939</v>
       </c>
-      <c r="D29" s="200">
+      <c r="D29" s="199">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>68428</v>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7748,43 +7753,43 @@
         <f>Fin_Analysis!C18</f>
         <v>12616</v>
       </c>
-      <c r="D30" s="200">
+      <c r="D30" s="199">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>12026</v>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7799,43 +7804,43 @@
         <f>Fin_Analysis!I28</f>
         <v>554255</v>
       </c>
-      <c r="D31" s="200">
+      <c r="D31" s="199">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>558565</v>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7850,43 +7855,43 @@
         <f>Fin_Analysis!I48</f>
         <v>83483</v>
       </c>
-      <c r="D32" s="200">
+      <c r="D32" s="199">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v>88107</v>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7901,43 +7906,43 @@
         <f>Fin_Analysis!I15</f>
         <v>33448</v>
       </c>
-      <c r="D33" s="200">
+      <c r="D33" s="199">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>35175</v>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7952,43 +7957,43 @@
         <f>Fin_Analysis!I34</f>
         <v>62222</v>
       </c>
-      <c r="D34" s="200">
+      <c r="D34" s="199">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>67759</v>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8054,43 +8059,43 @@
         <f>Fin_Analysis!D3</f>
         <v>1383869</v>
       </c>
-      <c r="D36" s="200">
+      <c r="D36" s="199">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>1345985</v>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8105,43 +8110,43 @@
         <f>Fin_Analysis!D4</f>
         <v>4325</v>
       </c>
-      <c r="D37" s="200">
+      <c r="D37" s="199">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>4253</v>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8156,43 +8161,43 @@
         <f>Fin_Analysis!C63</f>
         <v>817499</v>
       </c>
-      <c r="D38" s="200">
+      <c r="D38" s="199">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>795161</v>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8254,47 +8259,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>0.11138591111982202</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>0.1076571445750132</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8323,47 +8328,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8374,47 +8379,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.8668930922046667</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.86225899137805029</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8425,47 +8430,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>2.2215198715160572E-2</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>2.4337989819249534E-2</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8476,47 +8481,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>3.6955976811858409E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>2.4859723939700765E-3</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8527,47 +8532,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>2.2325505205376484E-4</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>1.9204936949125055E-4</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8578,47 +8583,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>2.5630406545468234E-2</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>1.1191143536631816E-2</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8629,47 +8634,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>8.1342449801464822E-2</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>9.9533853502607073E-2</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8698,47 +8703,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0.10000802529255164</v>
       </c>
-      <c r="D50" s="157">
+      <c r="D50" s="156">
         <f t="shared" si="41"/>
         <v>7.3008634753040522E-2</v>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8749,47 +8754,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>1.2499640843388893E-2</v>
       </c>
-      <c r="D51" s="154">
+      <c r="D51" s="153">
         <f t="shared" si="42"/>
         <v>1.2831031763898772E-2</v>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8817,47 +8822,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157">
+      <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.31546091797268211</v>
       </c>
-      <c r="D53" s="157">
+      <c r="D53" s="156">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.32452750272625946</v>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8867,47 +8872,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158">
+      <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>0.85815476812654601</v>
       </c>
-      <c r="D54" s="158">
+      <c r="D54" s="157">
         <f t="shared" si="44"/>
         <v>0.90629918200011661</v>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8917,47 +8922,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>4.5432583973138346E-2</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>2.4976149385243705E-2</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8967,47 +8972,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159">
+      <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>0.96378562214143304</v>
       </c>
-      <c r="D56" s="159">
+      <c r="D56" s="158">
         <f t="shared" si="46"/>
         <v>0.89175655474295745</v>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10305,8 +10310,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10355,7 +10360,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>1379544</v>
       </c>
@@ -10399,11 +10404,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25602.823240341684</v>
+        <v>-25600.559831851417</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0185009009092203</v>
+        <v>1.01849926534365</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10452,7 +10457,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10499,7 +10504,7 @@
         <f>Inputs!C48</f>
         <v>172891</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10527,7 +10532,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10555,7 +10560,7 @@
         <f>Inputs!C50</f>
         <v>100939</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10583,7 +10588,7 @@
         <f>Inputs!C51</f>
         <v>176336</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10596,7 +10601,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10611,7 +10616,7 @@
         <f>Inputs!C52</f>
         <v>19344</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10638,7 +10643,7 @@
         <f>Inputs!C53</f>
         <v>22728</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10660,7 +10665,7 @@
         <f>Inputs!C54</f>
         <v>28822</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10682,7 +10687,7 @@
         <f>Inputs!C55</f>
         <v>12616</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10703,7 +10708,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10728,7 +10733,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10755,7 +10760,7 @@
         <f>Inputs!C58</f>
         <v>507</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10776,7 +10781,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10941,7 +10946,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>554255</v>
       </c>
@@ -10970,7 +10975,7 @@
         <f>Inputs!C60</f>
         <v>75495</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10996,7 +11001,7 @@
         <f>Inputs!C61</f>
         <v>182795</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -11023,7 +11028,7 @@
         <f>Inputs!C62</f>
         <v>5625</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11050,7 +11055,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11066,7 +11071,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11080,7 +11085,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11107,7 +11112,7 @@
         <f>Inputs!C65</f>
         <v>185013</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11133,7 +11138,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11160,7 +11165,7 @@
         <f>Inputs!C67</f>
         <v>94862</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11187,7 +11192,7 @@
         <f>Inputs!C68</f>
         <v>781712</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11208,7 +11213,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11229,7 +11234,7 @@
         <f>Inputs!C70</f>
         <v>34291</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11250,7 +11255,7 @@
         <f>Inputs!C71</f>
         <v>47891</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11271,7 +11276,7 @@
         <f>Inputs!C72</f>
         <v>79740</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11417,7 +11422,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>83483</v>
       </c>
@@ -11490,11 +11495,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0458115255507134</v>
+        <v>1.0503943620892127</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4523.1348480068355</v>
+        <v>4542.9556160358452</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11526,11 +11531,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>95670</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11541,11 +11546,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11557,11 +11562,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11657,8 +11662,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>95670</v>
@@ -11738,8 +11743,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>542068</v>
@@ -11775,19 +11780,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11797,18 +11802,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11819,17 +11824,17 @@
         <f>Data!C6</f>
         <v>1009309</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>1009309</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>1009309</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11840,23 +11845,23 @@
         <f>Data!C8</f>
         <v>0</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>0</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>0</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0</v>
       </c>
@@ -11866,21 +11871,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>1009309</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>1009309</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>1009309</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11891,23 +11896,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>874963</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.8668930922046667</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>874963</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.8668930922046667</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>874963</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.8668930922046667</v>
       </c>
@@ -11921,54 +11926,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>225.33333333333334</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>2.2325505205376484E-4</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>225.33333333333334</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>2.2325505205376484E-4</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>225.33333333333334</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>2.2325505205376484E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>134120.66666666666</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.13288365274327946</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>134120.66666666666</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.13288365274327946</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>134120.66666666666</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.13288365274327946</v>
       </c>
@@ -11982,27 +11987,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>22422</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>2.2215198715160572E-2</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>22422</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>2.2215198715160572E-2</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>22422</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>2.2215198715160572E-2</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12014,23 +12019,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>3730</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>3.6955976811858409E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>3730</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>3.6955976811858409E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>3730</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>3.6955976811858409E-3</v>
       </c>
@@ -12044,23 +12049,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>25869</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>2.5630406545468234E-2</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>25869</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>2.5630406545468234E-2</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>25869</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>2.5630406545468234E-2</v>
       </c>
@@ -12070,27 +12075,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>82099.666666666657</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>8.1342449801464822E-2</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>82099.666666666657</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>8.1342449801464822E-2</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>82099.666666666657</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>8.1342449801464822E-2</v>
       </c>
@@ -12100,49 +12105,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>61574.749999999993</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>6.1006837351098617E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>61574.749999999993</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>6.1006837351098617E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>61574.749999999993</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>6.1006837351098617E-2</v>
       </c>
@@ -12152,69 +12157,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>2.8663856265948864</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>2.8663856265948864</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>2.8663856265948864</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2545560813243052E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>4.2359935911127182E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2545560813243052E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>4.2359935911127182E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2545560813243052E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>4.2359935911127182E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>4.548</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>1.5866671803691612</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>4.548</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>1.5866671803691612</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>4.548</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>1.5866671803691612</v>
       </c>
@@ -12224,21 +12229,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7505645012773036E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>6.7211120072726546E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7505645012773036E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>6.7211120072726546E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7505645012773036E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>6.7211120072726546E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12260,22 +12265,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12285,9 +12290,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12295,15 +12300,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>54.867886336205594</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>52.486710736757807</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>54.867886336205594</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>52.486710736757807</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12311,24 +12316,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>97.989547759779015</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>93.691103104064027</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>97.989547759779015</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>93.691103104064027</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12349,14 +12357,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12371,21 +12379,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>585999.2610151741</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>560567.86143339344</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>27.279036601352345</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>26.095171490646948</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>27.279036601352345</v>
+        <v>26.095171490646948</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>39.303362256382073</v>
+        <v>37.07451088996752</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12395,16 +12403,16 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4850.617421338874</v>
-      </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+        <v>4867.4015646653061</v>
+      </c>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.22580262293613051</v>
-      </c>
-      <c r="I98" s="216"/>
+        <v>0.22658394689092681</v>
+      </c>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12415,17 +12423,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12434,27 +12442,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>581148.64359383518</v>
+        <v>555700.45986872818</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>22.995248881653783</v>
+        <v>21.988299412192617</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>27.053233978416216</v>
+        <v>25.868587543756021</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>27.053233978416216</v>
+        <v>25.868587543756021</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>27.053233978416216</v>
+        <v>25.868587543756021</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>39.077559633445944</v>
+        <v>36.847926943076594</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12473,14 +12481,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12495,27 +12503,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1046546.6488464085</v>
+        <v>1000638.4581002037</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>41.410404931278364</v>
+        <v>39.593881252607922</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>48.718123448562785</v>
+        <v>46.581036767774023</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>48.718123448562785</v>
+        <v>46.581036767774023</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>48.718123448562785</v>
+        <v>46.581036767774023</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>70.192583496701658</v>
+        <v>66.179643829196422</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12534,14 +12542,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12556,27 +12564,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>813847.64622012165</v>
+        <v>778169.45898446592</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>32.202826906466072</v>
+        <v>30.79109033240027</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>37.885678713489497</v>
+        <v>36.224812155765022</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>37.885678713489497</v>
+        <v>36.224812155765022</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>37.885678713489497</v>
+        <v>36.224812155765022</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>54.635071565073801</v>
+        <v>51.513785386136504</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F7B691-4C24-44A0-928C-34C243205820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{535C08FA-9E4C-4066-A337-B32C28D61089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
   <si>
     <t>Company Info:</t>
   </si>
@@ -936,6 +936,9 @@
   </si>
   <si>
     <t>中国移动</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
   </si>
   <si>
     <t>C0010</t>
@@ -3574,7 +3577,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3627,7 +3630,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3636,7 +3639,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3652,7 +3655,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3684,7 +3687,7 @@
         <v>254</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3701,7 +3704,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3710,7 +3713,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3719,7 +3722,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3728,7 +3731,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3737,7 +3740,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3746,7 +3749,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4180,7 +4183,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7211120072726546E-2</v>
+        <v>6.7161772389438268E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4646,9 +4649,11 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>265</v>
-      </c>
-      <c r="D87" s="269"/>
+        <v>266</v>
+      </c>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4960,10 +4965,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>72.5</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5001,7 +5006,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1557421.0718825001</v>
+        <v>1555272.9048868001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5039,7 +5044,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
+        <v>Tier 3</v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -5050,7 +5055,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5096,10 +5101,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5146,7 +5151,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5217,7 +5222,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0503943620892127</v>
+        <v>1.051166148277457</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5233,7 +5238,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.607212298385896</v>
+        <v>23.624557898336192</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5265,7 +5270,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7211120072726546E-2</v>
+        <v>6.7161772389438268E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5295,20 +5300,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>39.593881252607922</v>
+        <v>39.501104625935056</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>76.106590403575879</v>
+        <v>69.22519139408017</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>46.581036767774023</v>
+        <v>46.471887795217718</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>66.179643829196422</v>
+        <v>60.195818603547984</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10404,11 +10409,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25600.559831851417</v>
+        <v>-25550.047032319104</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.01849926534365</v>
+        <v>1.0184627642011774</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11495,11 +11500,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0503943620892127</v>
+        <v>1.051166148277457</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4542.9556160358452</v>
+        <v>4546.2935913000019</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12180,17 +12185,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2359935911127182E-2</v>
+        <v>4.2328834440132614E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2359935911127182E-2</v>
+        <v>4.2328834440132614E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2359935911127182E-2</v>
+        <v>4.2328834440132614E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12231,17 +12236,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7211120072726546E-2</v>
+        <v>6.7161772389438268E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7211120072726546E-2</v>
+        <v>6.7161772389438268E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7211120072726546E-2</v>
+        <v>6.7161772389438268E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12290,7 +12295,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12301,14 +12306,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>52.486710736757807</v>
+        <v>52.368018318746067</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>52.486710736757807</v>
+        <v>52.368018318746067</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12322,21 +12327,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>93.691103104064027</v>
+        <v>93.471565533604661</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>93.691103104064027</v>
+        <v>93.471565533604661</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12379,21 +12384,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>560567.86143339344</v>
+        <v>559300.20426838449</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>26.095171490646948</v>
+        <v>26.036160381755209</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>26.095171490646948</v>
+        <v>26.036160381755209</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.07451088996752</v>
+        <v>33.725076854620525</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12403,14 +12408,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4867.4015646653061</v>
+        <v>4860.6879073347336</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.22658394689092681</v>
+        <v>0.22627141730900832</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12442,27 +12447,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>555700.45986872818</v>
+        <v>554439.51636104973</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>21.988299412192617</v>
+        <v>21.938405619779267</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>25.868587543756021</v>
+        <v>25.809888964446202</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>25.868587543756021</v>
+        <v>25.809888964446198</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>25.868587543756021</v>
+        <v>25.809888964446195</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>36.847926943076594</v>
+        <v>33.498805437311518</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12503,27 +12508,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1000638.4581002037</v>
+        <v>998293.75589560345</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>39.593881252607922</v>
+        <v>39.501104625935056</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>46.581036767774023</v>
+        <v>46.471887795217718</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>46.581036767774023</v>
+        <v>46.471887795217718</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>46.581036767774023</v>
+        <v>46.471887795217718</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>66.179643829196422</v>
+        <v>60.195818603547984</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12564,27 +12569,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>778169.45898446592</v>
+        <v>776366.63612832665</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>30.79109033240027</v>
+        <v>30.719755122857162</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>36.224812155765022</v>
+        <v>36.140888379831964</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>36.224812155765022</v>
+        <v>36.140888379831956</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>36.224812155765022</v>
+        <v>36.140888379831956</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>51.513785386136504</v>
+        <v>46.847312020429754</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{535C08FA-9E4C-4066-A337-B32C28D61089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E795908D-907F-4D86-A745-C9322878A9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7161772389438268E-2</v>
+        <v>6.6381681782905155E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4965,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>72.400000000000006</v>
+        <v>73.349999999999994</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1555272.9048868001</v>
+        <v>1575680.4913459499</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5055,7 +5055,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.051166148277457</v>
+        <v>1.0635190266040198</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.624557898336192</v>
+        <v>23.902184122996498</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7161772389438268E-2</v>
+        <v>6.6381681782905155E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5300,20 +5300,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>39.501104625935056</v>
+        <v>39.410230754495139</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>69.22519139408017</v>
+        <v>69.065936071913328</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>46.471887795217718</v>
+        <v>46.364977358229574</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>60.195818603547984</v>
+        <v>60.05733571470725</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10409,11 +10409,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25550.047032319104</v>
+        <v>-25641.841003586895</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0184627642011774</v>
+        <v>1.0185290956034039</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11500,11 +11500,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.051166148277457</v>
+        <v>1.0635190266040198</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4546.2935913000019</v>
+        <v>4599.7197900623851</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12185,17 +12185,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2328834440132614E-2</v>
+        <v>4.1837180855698097E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2328834440132614E-2</v>
+        <v>4.1837180855698097E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2328834440132614E-2</v>
+        <v>4.1837180855698097E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12236,17 +12236,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7161772389438268E-2</v>
+        <v>6.6381681782905155E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7161772389438268E-2</v>
+        <v>6.6381681782905155E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7161772389438268E-2</v>
+        <v>6.6381681782905155E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12306,14 +12306,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>52.368018318746067</v>
+        <v>52.315369386403738</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>52.368018318746067</v>
+        <v>52.315369386403738</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12334,14 +12334,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>93.471565533604661</v>
+        <v>93.25653045774979</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>93.471565533604661</v>
+        <v>93.25653045774979</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12384,21 +12384,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>559300.20426838449</v>
+        <v>558737.90384994308</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>26.036160381755209</v>
+        <v>26.00998455745631</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>26.036160381755209</v>
+        <v>26.00998455745631</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>33.725076854620525</v>
+        <v>33.691170868742823</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12408,14 +12408,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4860.6879073347336</v>
+        <v>4924.4676519751738</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.22627141730900832</v>
+        <v>0.22924044833723417</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12447,27 +12447,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>554439.51636104973</v>
+        <v>553813.43619796785</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>21.938405619779267</v>
+        <v>21.913632492751216</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>25.809888964446202</v>
+        <v>25.780744109119077</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>25.809888964446198</v>
+        <v>25.780744109119077</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>25.809888964446195</v>
+        <v>25.780744109119073</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>33.498805437311518</v>
+        <v>33.461930420405587</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12508,27 +12508,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>998293.75589560345</v>
+        <v>995997.14117326553</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>39.501104625935056</v>
+        <v>39.410230754495139</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>46.471887795217718</v>
+        <v>46.364977358229574</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>46.471887795217718</v>
+        <v>46.364977358229574</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>46.471887795217718</v>
+        <v>46.364977358229574</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>60.195818603547984</v>
+        <v>60.05733571470725</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12569,27 +12569,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>776366.63612832665</v>
+        <v>774905.28868561669</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>30.719755122857162</v>
+        <v>30.661931623623175</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>36.140888379831964</v>
+        <v>36.072860733674325</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>36.140888379831956</v>
+        <v>36.072860733674325</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>36.140888379831956</v>
+        <v>36.072860733674325</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>46.847312020429754</v>
+        <v>46.759633067556422</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E795908D-907F-4D86-A745-C9322878A9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67773462-7B39-470B-9E6B-5A54F0CBA1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -932,6 +932,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0941.HK</t>
   </si>
   <si>
@@ -945,9 +956,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>agree</t>
@@ -3577,7 +3585,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3598,7 +3606,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3606,7 +3614,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3630,7 +3638,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3639,7 +3647,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3655,7 +3663,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3687,7 +3695,7 @@
         <v>254</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3704,7 +3712,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3713,7 +3721,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3722,7 +3730,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3731,7 +3739,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3740,7 +3748,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3749,7 +3757,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4183,7 +4191,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6381681782905155E-2</v>
+        <v>6.5387987559273747E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4314,7 +4322,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="C54" s="59">
         <v>28822</v>
@@ -4438,7 +4446,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4649,7 +4657,7 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4965,10 +4973,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>73.349999999999994</v>
+        <v>74.5</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5006,7 +5014,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1575680.4913459499</v>
+        <v>1600384.4117965</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5055,7 +5063,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5101,10 +5109,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5151,7 +5159,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5222,7 +5230,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0635190266040198</v>
+        <v>1.0796812110190168</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5238,7 +5246,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.902184122996498</v>
+        <v>24.265423047786246</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5270,7 +5278,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.6381681782905155E-2</v>
+        <v>6.5387987559273747E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5300,20 +5308,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>39.410230754495139</v>
+        <v>46.705451205343984</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>69.065936071913328</v>
+        <v>86.300205986591763</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>46.364977358229574</v>
+        <v>54.947589653345865</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>60.05733571470725</v>
+        <v>75.043657379645012</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10409,11 +10417,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25641.841003586895</v>
+        <v>-25728.871343113678</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0185290956034039</v>
+        <v>1.0185919847493612</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11500,11 +11508,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0635190266040198</v>
+        <v>1.0796812110190168</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4599.7197900623851</v>
+        <v>4669.6212376572475</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12185,17 +12193,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1837180855698097E-2</v>
+        <v>4.1210903186426444E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1837180855698097E-2</v>
+        <v>4.1210903186426444E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1837180855698097E-2</v>
+        <v>4.1210903186426444E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12236,17 +12244,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6381681782905155E-2</v>
+        <v>6.5387987559273747E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6381681782905155E-2</v>
+        <v>6.5387987559273747E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6381681782905155E-2</v>
+        <v>6.5387987559273747E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12295,7 +12303,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12306,14 +12314,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>52.315369386403738</v>
+        <v>62.102140150035204</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>52.315369386403738</v>
+        <v>62.102140150035204</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12334,14 +12342,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>93.25653045774979</v>
+        <v>110.5192293850578</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>93.25653045774979</v>
+        <v>110.5192293850578</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12384,21 +12392,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>558737.90384994308</v>
+        <v>663262.44120994303</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>26.00998455745631</v>
+        <v>30.875739294831352</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>26.00998455745631</v>
+        <v>30.875739294831352</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>33.691170868742823</v>
+        <v>42.16797161808676</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12408,14 +12416,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4924.4676519751738</v>
+        <v>5001.6747112767625</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.22924044833723417</v>
+        <v>0.23283453852929722</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12447,27 +12455,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>553813.43619796785</v>
+        <v>658260.76649866626</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>21.913632492751216</v>
+        <v>26.046469042856746</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>25.780744109119077</v>
+        <v>30.642904756302055</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>25.780744109119077</v>
+        <v>30.642904756302055</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>25.780744109119073</v>
+        <v>30.642904756302055</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>33.461930420405587</v>
+        <v>41.935137079557464</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12508,27 +12516,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>995997.14117326553</v>
+        <v>1180365.9858658439</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>39.410230754495139</v>
+        <v>46.705451205343984</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>46.364977358229574</v>
+        <v>54.947589653345865</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>46.364977358229574</v>
+        <v>54.947589653345865</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>46.364977358229574</v>
+        <v>54.947589653345865</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>60.05733571470725</v>
+        <v>75.043657379645012</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12569,27 +12577,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>774905.28868561669</v>
+        <v>919313.37618225499</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>30.661931623623175</v>
+        <v>36.375960124100366</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>36.072860733674325</v>
+        <v>42.795247204823958</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>36.072860733674325</v>
+        <v>42.795247204823958</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>36.072860733674325</v>
+        <v>42.795247204823958</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>46.759633067556422</v>
+        <v>58.489397229601238</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67773462-7B39-470B-9E6B-5A54F0CBA1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B84A419-A45F-4694-B872-5F0EB4362CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -940,6 +940,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3584,7 +3588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3606,7 +3610,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3614,7 +3618,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3638,7 +3642,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3647,7 +3651,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3663,7 +3667,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3712,7 +3716,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3721,7 +3725,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3730,7 +3734,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3739,7 +3743,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3748,7 +3752,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3757,7 +3761,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4191,7 +4195,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5387987559273747E-2</v>
+        <v>6.5426970585699989E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4657,7 +4661,7 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4973,10 +4977,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>74.5</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5014,7 +5018,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1600384.4117965</v>
+        <v>1598236.2448008</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5063,7 +5067,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5084,7 +5088,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5095,7 +5099,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5122,7 +5126,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5230,7 +5234,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0796812110190168</v>
+        <v>1.079037909933787</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5246,7 +5250,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.265423047786246</v>
+        <v>24.250965101476826</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5278,7 +5282,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5387987559273747E-2</v>
+        <v>6.5426970585699989E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5308,20 +5312,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>46.705451205343984</v>
+        <v>46.679105926403274</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>86.300205986591763</v>
+        <v>86.251526379807487</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>54.947589653345865</v>
+        <v>54.916595207533263</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>75.043657379645012</v>
+        <v>75.00132728678912</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5356,8 +5360,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
@@ -6383,12 +6387,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8814,118 +8818,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="153">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>0.31120055517002082</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.31546091797268211</v>
       </c>
-      <c r="D53" s="156">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
+      <c r="D54" s="156">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.32452750272625946</v>
       </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.85815476812654601</v>
-      </c>
-      <c r="D54" s="157">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>0.90629918200011661</v>
-      </c>
-      <c r="E54" s="157" t="str">
+        <v/>
+      </c>
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8933,107 +8938,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>4.5432583973138346E-2</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>0.85815476812654601</v>
+      </c>
+      <c r="D55" s="157">
         <f t="shared" si="45"/>
-        <v>2.4976149385243705E-2</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v>0.90629918200011661</v>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>4.5432583973138346E-2</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>2.4976149385243705E-2</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>0.96378562214143304</v>
       </c>
-      <c r="D56" s="158">
-        <f t="shared" si="46"/>
+      <c r="D57" s="158">
+        <f t="shared" si="47"/>
         <v>0.89175655474295745</v>
       </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9601,7 +9653,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10284,6 +10338,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10417,11 +10472,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25728.871343113678</v>
+        <v>-25706.676503726441</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0185919847493612</v>
+        <v>1.0185759464976283</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11508,11 +11563,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0796812110190168</v>
+        <v>1.079037909933787</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4669.6212376572475</v>
+        <v>4666.8389604636286</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12193,17 +12248,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1210903186426444E-2</v>
+        <v>4.1235472312774163E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1210903186426444E-2</v>
+        <v>4.1235472312774163E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1210903186426444E-2</v>
+        <v>4.1235472312774163E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12244,17 +12299,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5387987559273747E-2</v>
+        <v>6.5426970585699989E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5387987559273747E-2</v>
+        <v>6.5426970585699989E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5387987559273747E-2</v>
+        <v>6.5426970585699989E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12314,14 +12369,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.102140150035204</v>
+        <v>62.06307784138604</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.102140150035204</v>
+        <v>62.06307784138604</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12342,14 +12397,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>110.5192293850578</v>
+        <v>110.45688848370004</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>110.5192293850578</v>
+        <v>110.45688848370004</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12392,21 +12447,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>663262.44120994303</v>
+        <v>662845.24846696598</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.875739294831352</v>
+        <v>30.856318423743947</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.875739294831352</v>
+        <v>30.856318423743947</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>42.16797161808676</v>
+        <v>42.141447921504401</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12416,14 +12471,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>5001.6747112767625</v>
+        <v>4994.9610539461901</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.23283453852929722</v>
+        <v>0.23252200894737868</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12455,27 +12510,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>658260.76649866626</v>
+        <v>657850.2874130198</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>26.046469042856746</v>
+        <v>26.030226952577085</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>30.642904756302055</v>
+        <v>30.623796414796569</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>30.642904756302055</v>
+        <v>30.623796414796569</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>30.642904756302055</v>
+        <v>30.623796414796569</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>41.935137079557464</v>
+        <v>41.908925912557024</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12516,27 +12571,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1180365.9858658439</v>
+        <v>1179700.1734103975</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>46.705451205343984</v>
+        <v>46.679105926403274</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>54.947589653345865</v>
+        <v>54.916595207533263</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>54.947589653345865</v>
+        <v>54.916595207533263</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>54.947589653345865</v>
+        <v>54.916595207533263</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>75.043657379645012</v>
+        <v>75.00132728678912</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12577,27 +12632,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>919313.37618225499</v>
+        <v>918775.23041170859</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>36.375960124100366</v>
+        <v>36.354666439490181</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>42.795247204823958</v>
+        <v>42.770195811164918</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>42.795247204823958</v>
+        <v>42.770195811164918</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>42.795247204823958</v>
+        <v>42.770195811164918</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>58.489397229601238</v>
+        <v>58.455126599673072</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B84A419-A45F-4694-B872-5F0EB4362CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{577C59FF-1030-45A4-896A-3A736775FAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5426970585699989E-2</v>
+        <v>6.5667307302858496E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4977,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>74.400000000000006</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1598236.2448008</v>
+        <v>1591791.7438137</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5067,7 +5067,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.079037909933787</v>
+        <v>1.0750887236550346</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.250965101476826</v>
+        <v>24.162208647469445</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5426970585699989E-2</v>
+        <v>6.5667307302858496E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5312,20 +5312,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>46.679105926403274</v>
+        <v>46.714314340821765</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>86.251526379807487</v>
+        <v>86.316582884741308</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>54.916595207533263</v>
+        <v>54.958016871555017</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>75.00132728678912</v>
+        <v>75.057898160644626</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10378,8 +10378,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10472,11 +10472,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25706.676503726441</v>
+        <v>-25678.795325179195</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0185759464976283</v>
+        <v>1.0185557992304035</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11563,11 +11563,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.079037909933787</v>
+        <v>1.0750887236550346</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4666.8389604636286</v>
+        <v>4649.7587298080243</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12248,17 +12248,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1235472312774163E-2</v>
+        <v>4.1386944984631274E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1235472312774163E-2</v>
+        <v>4.1386944984631274E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1235472312774163E-2</v>
+        <v>4.1386944984631274E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12299,17 +12299,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5426970585699989E-2</v>
+        <v>6.5667307302858496E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5426970585699989E-2</v>
+        <v>6.5667307302858496E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5426970585699989E-2</v>
+        <v>6.5667307302858496E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12369,14 +12369,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.06307784138604</v>
+        <v>62.085023231163753</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.06307784138604</v>
+        <v>62.085023231163753</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12397,14 +12397,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>110.45688848370004</v>
+        <v>110.54020224534841</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>110.45688848370004</v>
+        <v>110.54020224534841</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12447,21 +12447,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>662845.24846696598</v>
+        <v>663079.6293234406</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.856318423743947</v>
+        <v>30.867229160988479</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.856318423743947</v>
+        <v>30.867229160988479</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>42.141447921504401</v>
+        <v>42.156349059710891</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12470,15 +12470,15 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
-        <v>4994.9610539461901</v>
+        <f>-E53*Exchange_Rate</f>
+        <v>-4974.8200819544709</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.23252200894737868</v>
+        <v>-0.23158442020162309</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12509,28 +12509,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>657850.2874130198</v>
+        <f>C97+C98+$C$99</f>
+        <v>658104.80924148613</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>26.030226952577085</v>
+        <v>26.040298029668829</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>30.623796414796569</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>30.635644740786855</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>30.623796414796569</v>
+        <v>30.635644740786859</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>30.623796414796569</v>
+        <v>30.635644740786859</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>41.908925912557024</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>41.92476463950927</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12571,27 +12571,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1179700.1734103975</v>
+        <v>1180589.9799259824</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>46.679105926403274</v>
+        <v>46.714314340821765</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>54.916595207533263</v>
+        <v>54.958016871555017</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>54.916595207533263</v>
+        <v>54.958016871555017</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>54.916595207533263</v>
+        <v>54.958016871555017</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>75.00132728678912</v>
+        <v>75.057898160644626</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12632,27 +12632,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>918775.23041170859</v>
+        <v>919347.39458373433</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>36.354666439490181</v>
+        <v>36.377306185245295</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>42.770195811164918</v>
+        <v>42.796830806170938</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>42.770195811164918</v>
+        <v>42.796830806170938</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>42.770195811164918</v>
+        <v>42.796830806170938</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>58.455126599673072</v>
+        <v>58.491331400076945</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{577C59FF-1030-45A4-896A-3A736775FAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5A91A0E-C27F-43C4-A086-54AC6B847735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5667307302858496E-2</v>
+        <v>6.5733228756880785E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4977,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>74.099999999999994</v>
+        <v>74.05</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1591791.7438137</v>
+        <v>1590717.6603158498</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5067,7 +5067,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0750887236550346</v>
+        <v>1.0740105564448337</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.162208647469445</v>
+        <v>24.137977251012078</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5667307302858496E-2</v>
+        <v>6.5733228756880785E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5312,20 +5312,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>46.714314340821765</v>
+        <v>46.744111788757564</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>86.316582884741308</v>
+        <v>86.37164125219887</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>54.958016871555017</v>
+        <v>54.993072692655957</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>75.057898160644626</v>
+        <v>75.105775001912065</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10472,11 +10472,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25678.795325179195</v>
+        <v>-25682.238282582905</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0185557992304035</v>
+        <v>1.0185582871518786</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11563,11 +11563,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0750887236550346</v>
+        <v>1.0740105564448337</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4649.7587298080243</v>
+        <v>4645.0956566239056</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12248,17 +12248,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1386944984631274E-2</v>
+        <v>4.1428492106067881E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1386944984631274E-2</v>
+        <v>4.1428492106067881E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1386944984631274E-2</v>
+        <v>4.1428492106067881E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12299,17 +12299,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5667307302858496E-2</v>
+        <v>6.5733228756880785E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5667307302858496E-2</v>
+        <v>6.5733228756880785E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5667307302858496E-2</v>
+        <v>6.5733228756880785E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12369,14 +12369,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.085023231163753</v>
+        <v>62.117803514766941</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.085023231163753</v>
+        <v>62.117803514766941</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12397,14 +12397,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>110.54020224534841</v>
+        <v>110.61071202308351</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>110.54020224534841</v>
+        <v>110.61071202308351</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12447,21 +12447,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>663079.6293234406</v>
+        <v>663429.72886709031</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.867229160988479</v>
+        <v>30.883526755372465</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.867229160988479</v>
+        <v>30.883526755372465</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>42.156349059710891</v>
+        <v>42.178607198726269</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12471,14 +12471,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-4974.8200819544709</v>
+        <v>-4971.4632532891837</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.23158442020162309</v>
+        <v>-0.23142815541066381</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12510,27 +12510,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>658104.80924148613</v>
+        <v>658458.26561380108</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>26.040298029668829</v>
+        <v>26.054283809967526</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>30.635644740786855</v>
+        <v>30.6520985999618</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>30.635644740786859</v>
+        <v>30.652098599961796</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>30.635644740786859</v>
+        <v>30.652098599961793</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>41.92476463950927</v>
+        <v>41.947179043315607</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12571,27 +12571,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1180589.9799259824</v>
+        <v>1181343.0375049445</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>46.714314340821765</v>
+        <v>46.744111788757564</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>54.958016871555017</v>
+        <v>54.993072692655957</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>54.958016871555017</v>
+        <v>54.993072692655957</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>54.958016871555017</v>
+        <v>54.993072692655957</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>75.057898160644626</v>
+        <v>75.105775001912065</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12632,27 +12632,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>919347.39458373433</v>
+        <v>919900.6515593729</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>36.377306185245295</v>
+        <v>36.399197799362547</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>42.796830806170938</v>
+        <v>42.82258564630888</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>42.796830806170938</v>
+        <v>42.82258564630888</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>42.796830806170938</v>
+        <v>42.822585646308873</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>58.491331400076945</v>
+        <v>58.526477022613832</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5A91A0E-C27F-43C4-A086-54AC6B847735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67D2790B-1879-41CE-A13A-C52481CDF5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5733228756880785E-2</v>
+        <v>6.5550045719853151E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4977,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>74.05</v>
+        <v>74.25</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1590717.6603158498</v>
+        <v>1595013.99430725</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5067,7 +5067,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5113,10 +5113,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5163,7 +5163,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0740105564448337</v>
+        <v>1.0770119352138148</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.137977251012078</v>
+        <v>24.205432093064235</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5733228756880785E-2</v>
+        <v>6.5550045719853151E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5312,20 +5312,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>46.744111788757564</v>
+        <v>42.646417918830835</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>86.37164125219887</v>
+        <v>76.736454196488353</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>54.993072692655957</v>
+        <v>50.172256375095102</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>75.105775001912065</v>
+        <v>66.727351475207271</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10472,11 +10472,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25682.238282582905</v>
+        <v>-25693.730930077978</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0185582871518786</v>
+        <v>1.0185665918739981</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11563,11 +11563,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0740105564448337</v>
+        <v>1.0770119352138148</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4645.0956566239056</v>
+        <v>4658.0766197997491</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12248,17 +12248,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1428492106067881E-2</v>
+        <v>4.1313040649521703E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1428492106067881E-2</v>
+        <v>4.1313040649521703E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1428492106067881E-2</v>
+        <v>4.1313040649521703E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12299,17 +12299,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5733228756880785E-2</v>
+        <v>6.5550045719853151E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5733228756880785E-2</v>
+        <v>6.5550045719853151E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5733228756880785E-2</v>
+        <v>6.5550045719853151E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12369,14 +12369,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.117803514766941</v>
+        <v>56.689714757528314</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.117803514766941</v>
+        <v>56.689714757528314</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12397,14 +12397,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>110.61071202308351</v>
+        <v>100.9143284731402</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>110.61071202308351</v>
+        <v>100.9143284731402</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12447,21 +12447,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>663429.72886709031</v>
+        <v>605456.72839508811</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.883526755372465</v>
+        <v>28.184807308139213</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.883526755372465</v>
+        <v>28.184807308139213</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>42.178607198726269</v>
+        <v>37.484810917229368</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12471,14 +12471,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-4971.4632532891837</v>
+        <v>-4984.8905679503305</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.23142815541066381</v>
+        <v>-0.2320532145745009</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12510,27 +12510,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>658458.26561380108</v>
+        <v>600471.83782713779</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>26.054283809967526</v>
+        <v>23.759840979530008</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>30.6520985999618</v>
+        <v>27.952754093564714</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>30.652098599961796</v>
+        <v>27.952754093564714</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>30.652098599961793</v>
+        <v>27.95275409356471</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>41.947179043315607</v>
+        <v>37.252757702654868</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12571,27 +12571,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1181343.0375049445</v>
+        <v>1077783.8524477822</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>46.744111788757564</v>
+        <v>42.646417918830835</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>54.993072692655957</v>
+        <v>50.172256375095102</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>54.993072692655957</v>
+        <v>50.172256375095102</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>54.993072692655957</v>
+        <v>50.172256375095102</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>75.105775001912065</v>
+        <v>66.727351475207271</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12632,27 +12632,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>919900.6515593729</v>
+        <v>839127.84513745992</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>36.399197799362547</v>
+        <v>33.203129449180423</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>42.82258564630888</v>
+        <v>39.062505234329905</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>42.82258564630888</v>
+        <v>39.062505234329905</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>42.822585646308873</v>
+        <v>39.062505234329905</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>58.526477022613832</v>
+        <v>51.990054588931073</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67D2790B-1879-41CE-A13A-C52481CDF5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC90DE52-ACC1-4DAF-96B8-164E4CF36665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4195,7 +4206,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5550045719853151E-2</v>
+        <v>6.4534701914999298E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4977,7 +4988,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>74.25</v>
+        <v>75.349999999999994</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -5018,7 +5029,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1595013.99430725</v>
+        <v>1618643.8312599501</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5067,7 +5078,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5234,7 +5245,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0770119352138148</v>
+        <v>1.0939568867472291</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5250,7 +5261,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.205432093064235</v>
+        <v>24.586263410017931</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5282,7 +5293,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5550045719853151E-2</v>
+        <v>6.4534701914999298E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5312,20 +5323,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>42.646417918830835</v>
+        <v>42.405239705203911</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>76.736454196488353</v>
+        <v>76.302486659557161</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>50.172256375095102</v>
+        <v>49.888517300239897</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>66.727351475207271</v>
+        <v>66.349988399614929</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10472,11 +10483,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25693.730930077978</v>
+        <v>-25748.855028164435</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0185665918739981</v>
+        <v>1.0186064251949891</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11563,11 +11574,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0770119352138148</v>
+        <v>1.0939568867472291</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4658.0766197997491</v>
+        <v>4731.3635351817657</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12248,17 +12259,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1313040649521703E-2</v>
+        <v>4.0673118290619939E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1313040649521703E-2</v>
+        <v>4.0673118290619939E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1313040649521703E-2</v>
+        <v>4.0673118290619939E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12299,17 +12310,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5550045719853151E-2</v>
+        <v>6.4534701914999298E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5550045719853151E-2</v>
+        <v>6.4534701914999298E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5550045719853151E-2</v>
+        <v>6.4534701914999298E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12369,14 +12380,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.689714757528314</v>
+        <v>56.464635100944989</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.689714757528314</v>
+        <v>56.464635100944989</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12397,14 +12408,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>100.9143284731402</v>
+        <v>100.34362784555559</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>100.9143284731402</v>
+        <v>100.34362784555559</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12447,21 +12458,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>605456.72839508811</v>
+        <v>603052.8356768745</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.184807308139213</v>
+        <v>28.072902939297055</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.184807308139213</v>
+        <v>28.072902939297055</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.484810917229368</v>
+        <v>37.335982008768148</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12471,14 +12482,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-4984.8905679503305</v>
+        <v>-5058.7407985866303</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.2320532145745009</v>
+        <v>-0.23549103997560453</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12510,27 +12521,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>600471.83782713779</v>
+        <v>597994.09487828787</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>23.759840979530008</v>
+        <v>23.661800114423233</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>27.952754093564714</v>
+        <v>27.837411899321452</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>27.952754093564714</v>
+        <v>27.837411899321452</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>27.95275409356471</v>
+        <v>27.837411899321449</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>37.252757702654868</v>
+        <v>37.100490968792542</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12571,27 +12582,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1077783.8524477822</v>
+        <v>1071688.6632878382</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>42.646417918830835</v>
+        <v>42.405239705203911</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>50.172256375095102</v>
+        <v>49.888517300239897</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>50.172256375095102</v>
+        <v>49.888517300239897</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>50.172256375095102</v>
+        <v>49.888517300239897</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>66.727351475207271</v>
+        <v>66.349988399614929</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12632,27 +12643,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>839127.84513745992</v>
+        <v>834841.3790830631</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>33.203129449180423</v>
+        <v>33.03351990981357</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>39.062505234329905</v>
+        <v>38.862964599780675</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>39.062505234329905</v>
+        <v>38.862964599780675</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>39.062505234329905</v>
+        <v>38.862964599780675</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>51.990054588931073</v>
+        <v>51.725239684203736</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC90DE52-ACC1-4DAF-96B8-164E4CF36665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35FCE8DF-E3B8-438C-A224-FBABCB64382D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -911,10 +894,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -955,6 +934,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1543,7 +1558,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2183,6 +2198,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3599,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3613,28 +3638,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -3650,24 +3675,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>21481669957</v>
@@ -3675,10 +3700,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3699,7 +3724,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3707,15 +3732,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3724,61 +3749,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3847,7 +3872,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>0</v>
@@ -3867,7 +3892,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>874963</v>
@@ -3887,7 +3912,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3903,7 +3928,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C29" s="150">
         <v>3730</v>
@@ -3923,7 +3948,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>169</v>
@@ -3943,7 +3968,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150">
         <v>22422</v>
@@ -3963,7 +3988,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150">
         <v>207132</v>
@@ -3983,7 +4008,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150">
         <v>181263</v>
@@ -4021,7 +4046,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -4039,7 +4064,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4075,7 +4100,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -4129,7 +4154,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150">
@@ -4147,7 +4172,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4165,7 +4190,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -4183,7 +4208,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>2.175+2.373</f>
@@ -4202,11 +4227,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4534701914999298E-2</v>
+        <v>6.4667460633085122E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4251,21 +4276,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <v>172891</v>
@@ -4277,7 +4302,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4287,7 +4312,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <v>100939</v>
@@ -4300,7 +4325,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59">
         <v>176336</v>
@@ -4312,7 +4337,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59">
         <v>19344</v>
@@ -4324,7 +4349,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59">
         <v>22728</v>
@@ -4337,7 +4362,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C54" s="59">
         <v>28822</v>
@@ -4349,7 +4374,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59">
         <v>12616</v>
@@ -4362,7 +4387,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4370,24 +4395,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59">
         <v>507</v>
@@ -4400,7 +4425,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4411,7 +4436,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59">
         <v>75495</v>
@@ -4424,7 +4449,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59">
         <v>182795</v>
@@ -4437,7 +4462,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59">
         <v>5625</v>
@@ -4450,7 +4475,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4461,7 +4486,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4471,7 +4496,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <v>185013</v>
@@ -4480,24 +4505,24 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59">
         <v>94862</v>
@@ -4507,12 +4532,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <v>781712</v>
@@ -4525,7 +4550,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4536,7 +4561,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>34291</v>
@@ -4548,7 +4573,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>47891</v>
@@ -4561,7 +4586,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247">
         <v>79740</v>
@@ -4573,13 +4598,13 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59">
         <v>33448</v>
@@ -4587,13 +4612,13 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4607,13 +4632,13 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59">
         <v>62222</v>
@@ -4621,19 +4646,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83">
         <v>83483</v>
@@ -4641,7 +4666,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59">
         <v>1379544</v>
@@ -4649,19 +4674,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4669,10 +4694,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4680,18 +4705,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4700,20 +4725,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4731,7 +4756,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4752,7 +4777,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4773,7 +4798,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4791,7 +4816,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4812,7 +4837,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4830,7 +4855,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4848,7 +4873,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4976,62 +5001,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0941.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>75.349999999999994</v>
+        <v>75.2</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>中国移动</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>21481669957</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>1618643.8312599501</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>1615421.5807664001</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5054,16 +5079,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5078,7 +5103,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5088,40 +5113,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5134,29 +5159,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5166,12 +5191,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5181,29 +5206,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5211,7 +5236,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5222,58 +5247,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>2.2325505205376484E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>2.2215198715160572E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0939568867472291</v>
+        <v>1.0917110537965624</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.6955976811858409E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.586263410017931</v>
+        <v>24.535789171801675</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>2.5630406545468234E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5282,18 +5307,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>8.1342449801464822E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4534701914999298E-2</v>
+        <v>6.4667460633085122E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5303,62 +5328,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>256</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>250</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>42.405239705203911</v>
+        <v>42.434334360321991</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>76.302486659557161</v>
+        <v>76.35483855166872</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>49.888517300239897</v>
-      </c>
-      <c r="G29" s="274">
+        <v>49.922746306261168</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>66.349988399614929</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>66.395511784059764</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5368,25 +5393,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5396,7 +5421,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5406,14 +5431,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5423,7 +5448,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5438,14 +5463,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6398,12 +6423,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6430,16 +6455,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6457,7 +6482,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6490,7 +6515,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6501,7 +6526,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6653,7 +6678,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6704,7 +6729,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6755,7 +6780,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6806,7 +6831,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6857,7 +6882,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6908,7 +6933,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6959,7 +6984,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7010,7 +7035,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7061,7 +7086,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7112,7 +7137,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7163,7 +7188,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7214,7 +7239,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7265,7 +7290,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7316,7 +7341,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7367,7 +7392,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7418,7 +7443,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7469,7 +7494,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7520,7 +7545,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7571,7 +7596,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7724,7 +7749,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7775,7 +7800,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7877,7 +7902,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8081,7 +8106,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8132,7 +8157,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8183,7 +8208,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8234,7 +8259,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8285,7 +8310,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8336,7 +8361,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8354,7 +8379,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8405,7 +8430,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8456,7 +8481,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8507,7 +8532,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8558,7 +8583,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8609,7 +8634,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8660,7 +8685,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8711,7 +8736,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8728,50 +8753,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0.10000802529255164</v>
-      </c>
-      <c r="D50" s="156">
+      <c r="B50" s="271" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>0.83822132233985658</v>
+      </c>
+      <c r="D50" s="272">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>0.78268236386593359</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
-        <v>7.3008634753040522E-2</v>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v/>
+      </c>
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8780,15 +8805,15 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>1.2499640843388893E-2</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>0.10000802529255164</v>
       </c>
       <c r="D51" s="153">
         <f t="shared" si="42"/>
-        <v>1.2831031763898772E-2</v>
+        <v>7.3008634753040522E-2</v>
       </c>
       <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8831,167 +8856,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>1.2499640843388893E-2</v>
+      </c>
+      <c r="D52" s="153">
+        <f t="shared" si="43"/>
+        <v>1.2831031763898772E-2</v>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>0.31120055517002082</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.31546091797268211</v>
-      </c>
-      <c r="D54" s="156">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v>0.32452750272625946</v>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.85815476812654601</v>
-      </c>
-      <c r="D55" s="157">
+      <c r="B55" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.68239969489618901</v>
+      </c>
+      <c r="D55" s="156">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v>0.67333816105832567</v>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
-        <v>0.90629918200011661</v>
-      </c>
-      <c r="E55" s="157" t="str">
+        <v/>
+      </c>
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8999,112 +9025,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>4.5432583973138346E-2</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>0.85815476812654601</v>
+      </c>
+      <c r="D56" s="157">
         <f t="shared" si="46"/>
-        <v>2.4976149385243705E-2</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v>0.90629918200011661</v>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>4.5432583973138346E-2</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>2.4976149385243705E-2</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>0.96378562214143304</v>
       </c>
-      <c r="D57" s="158">
-        <f t="shared" si="47"/>
+      <c r="D58" s="158">
+        <f t="shared" si="48"/>
         <v>0.89175655474295745</v>
       </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>9.7221014093545874E-2</v>
+      </c>
+      <c r="D60" s="274">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>9.6084016778313408E-2</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>5.9512176970554512E-2</v>
+      </c>
+      <c r="D61" s="274">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>6.9528788163359001E-2</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9667,7 +9883,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10350,6 +10568,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10389,8 +10608,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10408,7 +10627,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10423,7 +10642,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10437,7 +10656,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10447,7 +10666,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10465,10 +10684,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10477,22 +10696,23 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25748.855028164435</v>
+        <f>(E49-I49-E53)</f>
+        <v>-24072.800307670157</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0186064251949891</v>
+        <v>1.0173952883601483</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10502,8 +10722,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10515,7 +10736,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10533,7 +10754,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10552,32 +10773,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10594,7 +10815,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10605,7 +10826,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10622,7 +10843,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10633,7 +10854,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10650,7 +10871,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10661,7 +10882,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10678,7 +10899,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10689,7 +10910,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10706,7 +10927,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10716,7 +10937,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10738,7 +10959,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10760,7 +10981,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10781,7 +11002,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10806,7 +11027,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10833,7 +11054,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10854,7 +11075,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10871,7 +11092,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10883,13 +11104,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10911,7 +11132,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10931,7 +11152,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10940,7 +11161,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10960,7 +11181,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10973,7 +11194,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10993,7 +11214,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11039,7 +11260,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11048,7 +11269,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11064,7 +11285,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11074,7 +11295,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11091,7 +11312,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11101,7 +11322,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11118,7 +11339,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11128,7 +11349,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11148,7 +11369,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11158,7 +11379,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11175,7 +11396,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11185,7 +11406,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11211,7 +11432,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11238,7 +11459,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11265,7 +11486,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11286,7 +11507,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11307,7 +11528,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11328,7 +11549,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11349,7 +11570,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11366,7 +11587,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11384,7 +11605,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11403,7 +11624,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11422,7 +11643,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11439,7 +11660,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11452,7 +11673,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11469,7 +11690,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11482,7 +11703,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11499,7 +11720,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11526,7 +11747,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11542,14 +11763,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11566,7 +11787,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11574,11 +11795,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0939568867472291</v>
+        <v>1.0917110537965624</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4731.3635351817657</v>
+        <v>4721.6503076701329</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11596,7 +11817,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11607,14 +11828,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>95670</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11622,30 +11843,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11662,11 +11883,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11676,7 +11897,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11697,7 +11918,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11718,7 +11939,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11739,7 +11960,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11754,7 +11975,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11785,11 +12006,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11799,7 +12020,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11820,7 +12041,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11835,7 +12056,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11857,21 +12078,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11881,23 +12102,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11918,7 +12139,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11948,7 +12169,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11969,7 +12190,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11999,7 +12220,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12029,7 +12250,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12060,7 +12281,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12087,12 +12308,12 @@
         <v>2.2215198715160572E-2</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12122,7 +12343,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12152,7 +12373,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12182,7 +12403,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12203,7 +12424,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12234,7 +12455,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12255,28 +12476,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0673118290619939E-2</v>
+        <v>4.0756789724508767E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0673118290619939E-2</v>
+        <v>4.0756789724508767E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0673118290619939E-2</v>
+        <v>4.0756789724508767E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12306,21 +12527,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4534701914999298E-2</v>
+        <v>6.4667460633085122E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4534701914999298E-2</v>
+        <v>6.4667460633085122E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4534701914999298E-2</v>
+        <v>6.4667460633085122E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12337,29 +12558,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12376,24 +12597,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.464635100944989</v>
+        <v>56.490860592565831</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.464635100944989</v>
+        <v>56.490860592565831</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12404,18 +12625,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>100.34362784555559</v>
+        <v>100.41247460283745</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>100.34362784555559</v>
+        <v>100.41247460283745</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12434,69 +12655,69 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>603052.8356768745</v>
+        <v>603332.9288194353</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.072902939297055</v>
+        <v>28.085941643602698</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.072902939297055</v>
+        <v>28.085941643602698</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.335982008768148</v>
+        <v>37.353323030835789</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-5058.7407985866303</v>
+        <v>-5048.6703125907734</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.23549103997560453</v>
+        <v>-0.23502224560272689</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12517,31 +12738,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>597994.09487828787</v>
+        <v>598284.25850684452</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>23.661800114423233</v>
+        <v>23.673281488299974</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>27.837411899321452</v>
+        <v>27.85091939799997</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>27.837411899321452</v>
+        <v>27.85091939799997</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>27.837411899321449</v>
+        <v>27.85091939799997</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>37.100490968792542</v>
+        <v>37.11830078523306</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12551,58 +12772,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1071688.6632878382</v>
+        <v>1072423.9594981433</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>42.405239705203911</v>
+        <v>42.434334360321991</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>49.888517300239897</v>
+        <v>49.922746306261168</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>49.888517300239897</v>
+        <v>49.922746306261168</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>49.888517300239897</v>
+        <v>49.922746306261168</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>66.349988399614929</v>
+        <v>66.395511784059764</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12612,58 +12833,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>834841.3790830631</v>
+        <v>835354.10900249379</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>33.03351990981357</v>
+        <v>33.053807924310981</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>38.862964599780675</v>
+        <v>38.886832852130567</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>38.862964599780675</v>
+        <v>38.886832852130567</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>38.862964599780675</v>
+        <v>38.886832852130567</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>51.725239684203736</v>
+        <v>51.756906284646412</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12672,7 +12893,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12681,6 +12902,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35FCE8DF-E3B8-438C-A224-FBABCB64382D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F8A3CE8-9A7F-4BBC-8A9D-0273E041B38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>- (CAPX - D&amp;A)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -953,10 +919,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -970,6 +932,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1294,7 +1292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1552,13 +1550,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2208,6 +2322,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2447,981 +2585,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8668930922046667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2325505205376484E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2215198715160572E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6955976811858409E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5630406545468234E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.1342449801464822E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3624,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3638,28 +2801,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -3675,24 +2838,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>21481669957</v>
@@ -3700,10 +2863,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3724,7 +2887,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3732,10 +2895,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3749,55 +2912,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3928,7 +3091,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C29" s="150">
         <v>3730</v>
@@ -4064,7 +3227,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4172,7 +3335,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4208,7 +3371,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>2.175+2.373</f>
@@ -4227,11 +3390,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4667460633085122E-2</v>
+        <v>6.4661411757164805E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4276,13 +3439,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4349,7 +3512,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59">
         <v>22728</v>
@@ -4362,7 +3525,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59">
         <v>28822</v>
@@ -4475,7 +3638,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4486,7 +3649,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4666,7 +3829,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>1379544</v>
@@ -4686,7 +3849,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4694,10 +3857,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4707,16 +3870,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4725,10 +3888,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4777,7 +3940,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4798,7 +3961,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4816,7 +3979,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4855,7 +4018,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4873,7 +4036,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4959,8 +4122,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5001,13 +4164,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0941.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -5016,47 +4179,47 @@
         <v>75.2</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>中国移动</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>21481669957</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
         <v>1615421.5807664001</v>
       </c>
-      <c r="H5" s="279"/>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5079,16 +4242,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5103,7 +4266,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5113,40 +4276,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5159,29 +4322,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5191,12 +4354,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5204,9 +4367,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5214,91 +4377,91 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>9.7221014093545888E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.8668930922046667</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>0.68239969489618901</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>2.2325505205376484E-4</v>
+      <c r="B22" s="279" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>0.49926073663179837</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>2.2215198715160572E-2</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.13288365274327946</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0917110537965624</v>
+        <v>1.0918131800033031</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.6955976811858409E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.535789171801675</v>
+        <v>24.538084419311343</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
-        <v>2.5630406545468234E-2</v>
+        <f>Fin_Analysis!I80</f>
+        <v>2.2215198715160572E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5307,18 +4470,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>8.1342449801464822E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>4.784560526062881E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4667460633085122E-2</v>
+        <v>6.4661411757164805E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5328,62 +4491,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>42.434334360321991</v>
+        <v>42.429159809871024</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>76.35483855166872</v>
+        <v>76.345527648829844</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>49.922746306261168</v>
-      </c>
-      <c r="G29" s="278">
+        <v>49.916658599848269</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>66.395511784059764</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>66.387415346808567</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5393,7 +4556,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5404,14 +4567,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5421,7 +4584,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5431,14 +4594,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5448,7 +4611,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5463,14 +4626,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6414,7 +5577,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6428,7 +5590,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6455,16 +5617,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6482,7 +5644,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6515,7 +5677,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6882,7 +6044,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6933,7 +6095,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6984,7 +6146,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7035,7 +6197,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7137,7 +6299,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7290,7 +6452,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7800,7 +6962,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8310,7 +7472,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8361,7 +7523,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8430,7 +7592,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8634,7 +7796,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8736,7 +7898,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8754,15 +7916,15 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>0.83822132233985658</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>0.49926073663179837</v>
       </c>
       <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
-        <v>0.78268236386593359</v>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
+        <v>0.47035641357243119</v>
       </c>
       <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
@@ -8805,7 +7967,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8856,7 +8018,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8907,7 +8069,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8958,7 +8120,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8975,7 +8137,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9175,15 +8337,15 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="E59" s="273" t="str">
         <f t="shared" si="49"/>
@@ -9225,7 +8387,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9275,7 +8437,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10703,11 +9865,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-24072.800307670157</v>
+        <v>-24073.242003514308</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0173952883601483</v>
+        <v>1.0173956075347552</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10779,7 +9941,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10937,7 +10099,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11349,7 +10511,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11795,11 +10957,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0917110537965624</v>
+        <v>1.0918131800033031</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4721.6503076701329</v>
+        <v>4722.0920035142854</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11817,7 +10979,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11831,11 +10993,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>95670</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11846,11 +11008,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11862,11 +11024,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11883,7 +11045,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11960,7 +11122,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -12006,7 +11168,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12041,7 +11203,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12080,19 +11242,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12102,18 +11264,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12190,7 +11352,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12220,7 +11382,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12250,7 +11412,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12313,7 +11475,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12343,7 +11505,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12424,7 +11586,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12455,7 +11617,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12476,28 +11638,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0756789724508767E-2</v>
+        <v>4.0752977408986549E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0756789724508767E-2</v>
+        <v>4.0752977408986549E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0756789724508767E-2</v>
+        <v>4.0752977408986549E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12527,21 +11689,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4667460633085122E-2</v>
+        <v>6.4661411757164805E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4667460633085122E-2</v>
+        <v>6.4661411757164805E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4667460633085122E-2</v>
+        <v>6.4661411757164805E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12563,24 +11725,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12597,24 +11759,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.490860592565831</v>
+        <v>56.484542008743716</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.490860592565831</v>
+        <v>56.484542008743716</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12625,18 +11787,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>100.41247460283745</v>
+        <v>100.40023005078847</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>100.41247460283745</v>
+        <v>100.40023005078847</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12655,14 +11817,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12679,21 +11841,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>603332.9288194353</v>
+        <v>603265.44516555918</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.085941643602698</v>
+        <v>28.08280019072631</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.085941643602698</v>
+        <v>28.08280019072631</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.353323030835789</v>
+        <v>37.349145008052474</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12703,14 +11865,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-5048.6703125907734</v>
+        <v>-5048.6703125907725</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.23502224560272689</v>
+        <v>-0.23502224560272683</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12742,27 +11904,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>598284.25850684452</v>
+        <v>598216.7748529684</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>23.673281488299974</v>
+        <v>23.670611253355045</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>27.85091939799997</v>
+        <v>27.847777945123582</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>27.85091939799997</v>
+        <v>27.847777945123582</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>27.85091939799997</v>
+        <v>27.847777945123578</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>37.11830078523306</v>
+        <v>37.114122762449746</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12772,21 +11934,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12799,31 +11961,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1072423.9594981433</v>
+        <v>1072293.1853981863</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>42.434334360321991</v>
+        <v>42.429159809871024</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>49.922746306261168</v>
+        <v>49.916658599848269</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>49.922746306261168</v>
+        <v>49.916658599848269</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>49.922746306261168</v>
+        <v>49.916658599848269</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>66.395511784059764</v>
+        <v>66.387415346808567</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12833,21 +11995,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12860,31 +12022,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>835354.10900249379</v>
+        <v>835254.98012557742</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>33.053807924310981</v>
+        <v>33.049885531613036</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>38.886832852130567</v>
+        <v>38.882218272485929</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>38.886832852130567</v>
+        <v>38.882218272485929</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>38.886832852130567</v>
+        <v>38.882218272485922</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>51.756906284646412</v>
+        <v>51.75076905462916</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12893,7 +12055,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F8A3CE8-9A7F-4BBC-8A9D-0273E041B38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AF7F433-74E4-4421-8717-DA8FF721E726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -903,10 +899,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,6 +960,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2396,7 +2400,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2493,12 +2497,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2787,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2801,28 +2821,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -2838,24 +2858,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>21481669957</v>
@@ -2863,10 +2883,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2887,7 +2907,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2895,10 +2915,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2912,61 +2932,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3091,7 +3111,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C29" s="150">
         <v>3730</v>
@@ -3189,9 +3209,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>263</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150">
@@ -3209,7 +3229,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -3227,7 +3247,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -3244,10 +3264,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150">
         <v>558565</v>
       </c>
@@ -3261,9 +3282,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -3316,10 +3337,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150">
         <v>1345985</v>
       </c>
@@ -3335,9 +3357,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150">
         <v>4253</v>
       </c>
@@ -3353,7 +3375,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -3371,7 +3393,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>2.175+2.373</f>
@@ -3390,11 +3412,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4661411757164805E-2</v>
+        <v>6.4959718287588369E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3439,13 +3461,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3465,7 +3487,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3475,7 +3497,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <v>100939</v>
@@ -3512,7 +3534,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59">
         <v>22728</v>
@@ -3525,7 +3547,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59">
         <v>28822</v>
@@ -3563,7 +3585,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3638,7 +3660,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3649,7 +3671,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3700,7 +3722,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <v>781712</v>
@@ -3829,7 +3851,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59">
         <v>1379544</v>
@@ -3849,7 +3871,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3857,10 +3879,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3868,7 +3890,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3876,10 +3898,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3901,7 +3923,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3940,7 +3962,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3961,7 +3983,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3979,7 +4001,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4018,7 +4040,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4036,7 +4058,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4059,28 +4081,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4122,8 +4149,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4164,7 +4191,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4176,15 +4203,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>75.2</v>
+        <v>74.849999999999994</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4204,7 +4231,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4217,7 +4244,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1615421.5807664001</v>
+        <v>1607902.9962814499</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4251,7 +4278,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4266,7 +4293,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4276,40 +4303,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4322,29 +4349,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4354,12 +4381,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4369,7 +4396,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4377,21 +4404,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="276">
+        <v>250</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>9.7221014093545888E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4399,69 +4426,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>0.68239969489618901</v>
+        <v>248</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>0.49926073663179837</v>
+        <v>255</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.13288365274327946</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0918131800033031</v>
+        <v>175</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.6955976811858409E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.538084419311343</v>
+        <v>24.425401190083679</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>2.2215198715160572E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4470,18 +4497,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>4.784560526062881E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4661411757164805E-2</v>
+        <v>6.4959718287588369E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4491,40 +4518,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>42.429159809871024</v>
+        <v>42.485984283406474</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>76.345527648829844</v>
+        <v>76.447775594225675</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>49.916658599848269</v>
+        <v>49.983510921654677</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>66.387415346808567</v>
+        <v>66.476326603674508</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4532,21 +4559,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4556,25 +4583,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4584,7 +4611,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4594,14 +4621,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4611,7 +4638,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4626,14 +4653,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5533,27 +5560,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5585,12 +5612,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5617,16 +5644,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5644,7 +5671,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5677,7 +5704,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5688,7 +5715,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6044,7 +6071,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6095,7 +6122,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6146,7 +6173,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6197,7 +6224,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6299,7 +6326,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6452,7 +6479,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6707,7 +6734,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6758,7 +6785,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6812,15 +6839,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>2021607</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
-        <v>1992657</v>
+        <f>IF(D34="","",D34+D30)</f>
+        <v>1904550</v>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6860,50 +6887,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>534183</v>
+        <f>Fin_Analysis!C13</f>
+        <v>100939</v>
       </c>
       <c r="D28" s="199">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
-        <v>498104</v>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <v>68428</v>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6911,50 +6938,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>100939</v>
+        <f>Fin_Analysis!C18</f>
+        <v>12616</v>
       </c>
       <c r="D29" s="199">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
-        <v>68428</v>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <v>12026</v>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6962,101 +6989,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>12616</v>
+        <f>Inputs!C37</f>
+        <v>0</v>
       </c>
       <c r="D30" s="199">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
-        <v>12026</v>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <v>558565</v>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>554255</v>
+        <f>Fin_Analysis!I15</f>
+        <v>33448</v>
       </c>
       <c r="D31" s="199">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v>558565</v>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
+        <v>35175</v>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7064,101 +7091,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>83483</v>
+        <f>Fin_Analysis!I34</f>
+        <v>62222</v>
       </c>
       <c r="D32" s="199">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
-        <v>88107</v>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <v>67759</v>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>33448</v>
-      </c>
-      <c r="D33" s="199">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v>35175</v>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>95670</v>
+      </c>
+      <c r="D33" s="77">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v>102934</v>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7166,50 +7193,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>62222</v>
+        <f>Inputs!C41</f>
+        <v>0</v>
       </c>
       <c r="D34" s="199">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
-        <v>67759</v>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <v>1345985</v>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7217,50 +7244,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>95670</v>
-      </c>
-      <c r="D35" s="77">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v>102934</v>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v>4253</v>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7268,50 +7295,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>1383869</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v>1345985</v>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
+        <v>795161</v>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7319,272 +7346,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>4325</v>
-      </c>
-      <c r="D37" s="199">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v>4253</v>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>1204108</v>
+      </c>
+      <c r="D37" s="65">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v>1109389</v>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>817499</v>
-      </c>
-      <c r="D38" s="199">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v>795161</v>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>0.11138591111982202</v>
+      </c>
+      <c r="D38" s="155">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>0.11620720955408788</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>1204108</v>
-      </c>
-      <c r="D39" s="65">
-        <f>IF(D38="","",D27-D38)</f>
-        <v>1197496</v>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>0.11138591111982202</v>
-      </c>
-      <c r="D40" s="155">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>0.1076571445750132</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.8668930922046667</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.86225899137805029</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>2.2215198715160572E-2</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>2.4337989819249534E-2</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7592,50 +7619,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.8668930922046667</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>3.6955976811858409E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.86225899137805029</v>
+        <f t="shared" si="37"/>
+        <v>2.4859723939700765E-3</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7643,50 +7670,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>2.2215198715160572E-2</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>2.2325505205376484E-4</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>2.4337989819249534E-2</v>
+        <f t="shared" si="38"/>
+        <v>1.9204936949125055E-4</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7694,50 +7721,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>3.6955976811858409E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>2.5630406545468234E-2</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>2.4859723939700765E-3</v>
+        <f t="shared" si="39"/>
+        <v>1.1191143536631816E-2</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7745,221 +7772,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>2.2325505205376484E-4</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>8.1342449801464822E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>1.9204936949125055E-4</v>
+        <f t="shared" si="40"/>
+        <v>9.9533853502607073E-2</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>2.5630406545468234E-2</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>1.1191143536631816E-2</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>8.1342449801464822E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>9.9533853502607073E-2</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272">
+        <f t="shared" si="41"/>
+        <v>0.49211572287416977</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0.10000802529255164</v>
+      </c>
+      <c r="D49" s="153">
+        <f t="shared" si="42"/>
+        <v>7.3008634753040522E-2</v>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>0.49926073663179837</v>
-      </c>
-      <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>0.47035641357243119</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>1.2499640843388893E-2</v>
+      </c>
+      <c r="D50" s="153">
+        <f t="shared" si="43"/>
+        <v>1.2831031763898772E-2</v>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7967,522 +7994,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0.10000802529255164</v>
-      </c>
-      <c r="D51" s="153">
-        <f t="shared" si="42"/>
-        <v>7.3008634753040522E-2</v>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>0.31120055517002082</v>
+      </c>
+      <c r="D51" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>1.2499640843388893E-2</v>
-      </c>
-      <c r="D52" s="153">
-        <f t="shared" si="43"/>
-        <v>1.2831031763898772E-2</v>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>0.31120055517002082</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.70448767425376069</v>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>0.85815476812654601</v>
+      </c>
+      <c r="D54" s="157">
+        <f t="shared" si="46"/>
+        <v>0.90629918200011661</v>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.68239969489618901</v>
-      </c>
-      <c r="D55" s="156">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v>0.67333816105832567</v>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>4.5432583973138346E-2</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>2.4976149385243705E-2</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.85815476812654601</v>
-      </c>
-      <c r="D56" s="157">
-        <f t="shared" si="46"/>
-        <v>0.90629918200011661</v>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>4.5432583973138346E-2</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>2.4976149385243705E-2</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>0.96378562214143304</v>
-      </c>
-      <c r="D58" s="158">
-        <f t="shared" si="48"/>
-        <v>0.89175655474295745</v>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274">
+        <f t="shared" si="49"/>
+        <v>9.6084016778313408E-2</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>251</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274">
+        <f t="shared" si="50"/>
+        <v>6.9528788163359001E-2</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>9.7221014093545874E-2</v>
-      </c>
-      <c r="D60" s="274">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>9.6084016778313408E-2</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>5.9512176970554512E-2</v>
-      </c>
-      <c r="D61" s="274">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>6.9528788163359001E-2</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9042,12 +8973,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9729,27 +9656,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9863,13 +9793,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>-24073.242003514308</v>
-      </c>
-      <c r="E6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>1.0173956075347552</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9889,9 +9819,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9941,7 +9871,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9988,7 +9918,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10016,7 +9946,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10099,7 +10029,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10121,7 +10051,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10189,7 +10119,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10511,7 +10441,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10648,7 +10578,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10935,9 +10865,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="str">
+      <c r="D52" s="74" t="e">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10955,13 +10885,13 @@
         <f>MAX(D4,0)</f>
         <v>4325</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="29" t="e">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0918131800033031</v>
-      </c>
-      <c r="E53" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="88" t="e">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4722.0920035142854</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10979,7 +10909,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11045,7 +10975,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11080,7 +11010,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11101,7 +11031,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11122,7 +11052,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11137,7 +11067,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11168,7 +11098,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11182,7 +11112,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11203,7 +11133,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11218,7 +11148,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11240,7 +11170,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11248,11 +11178,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11280,7 +11210,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11352,7 +11282,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11382,7 +11312,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11412,7 +11342,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11470,12 +11400,12 @@
         <v>2.2215198715160572E-2</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11505,7 +11435,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11535,7 +11465,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11586,7 +11516,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11617,7 +11547,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11638,28 +11568,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0752977408986549E-2</v>
+        <v>4.0940985665610434E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0752977408986549E-2</v>
+        <v>4.0940985665610434E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0752977408986549E-2</v>
+        <v>4.0940985665610434E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11689,21 +11619,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4661411757164805E-2</v>
+        <v>6.4959718287588369E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4661411757164805E-2</v>
+        <v>6.4959718287588369E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4661411757164805E-2</v>
+        <v>6.4959718287588369E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11720,27 +11650,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11759,24 +11689,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.484542008743716</v>
+        <v>56.532053265073614</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.484542008743716</v>
+        <v>56.532053265073614</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11787,18 +11717,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>100.40023005078847</v>
+        <v>100.53469394875485</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>100.40023005078847</v>
+        <v>100.53469394875485</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11817,14 +11747,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11837,49 +11767,49 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>603265.44516555918</v>
+        <v>603772.87424581614</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.08280019072631</v>
+        <v>28.106421682038327</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.08280019072631</v>
+        <v>28.106421682038327</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.349145008052474</v>
+        <v>37.380560767817428</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="91" t="e">
         <f>-E53*Exchange_Rate</f>
-        <v>-5048.6703125907725</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="H98" s="123" t="e">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.23502224560272683</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11902,29 +11832,29 @@
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>598216.7748529684</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>23.670611253355045</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>27.847777945123582</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>27.847777945123582</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>27.847777945123578</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>37.114122762449746</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11934,21 +11864,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11961,31 +11891,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1072293.1853981863</v>
+        <v>1073729.2849110907</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>42.429159809871024</v>
+        <v>42.485984283406474</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>49.916658599848269</v>
+        <v>49.983510921654677</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>49.916658599848269</v>
+        <v>49.983510921654677</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>49.916658599848269</v>
+        <v>49.983510921654677</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>66.387415346808567</v>
+        <v>66.476326603674508</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11995,21 +11925,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12022,31 +11952,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>835254.98012557742</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>33.049885531613036</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
-        <v>38.882218272485929</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>38.882218272485929</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
-        <v>38.882218272485922</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
-        <v>51.75076905462916</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12055,7 +11985,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AF7F433-74E4-4421-8717-DA8FF721E726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43AF66BA-2DCD-434C-B784-CD25CE3771E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -939,10 +935,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -972,6 +964,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1911,7 +1919,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2147,12 +2154,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2351,6 +2354,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2590,8 +2598,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2807,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2825,162 +2833,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>264</v>
+      <c r="C4" s="187" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>265</v>
+      <c r="C5" s="190" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45603</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>267</v>
+      <c r="C9" s="191" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>21481669957</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>268</v>
+      <c r="C11" s="191" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>241</v>
+      <c r="B15" s="215" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>269</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>269</v>
+      <c r="C19" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>269</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>269</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>270</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3037,436 +3045,440 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>1009309</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>937259</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>0</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>0</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>874963</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>808160</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="150">
+        <v>237</v>
+      </c>
+      <c r="C29" s="149">
         <v>3730</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>2330</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>169</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>135</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <v>22422</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <v>22811</v>
       </c>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <v>207132</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <v>200077</v>
       </c>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <v>181263</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <v>189588</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150">
+        <v>261</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149">
         <v>498104</v>
       </c>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150">
+      <c r="C35" s="214"/>
+      <c r="D35" s="149">
         <v>68428</v>
       </c>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150">
+      <c r="C36" s="214"/>
+      <c r="D36" s="149">
         <v>12026</v>
       </c>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150">
+      <c r="B37" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="149">
+        <v>637738</v>
+      </c>
+      <c r="D37" s="149">
         <v>558565</v>
       </c>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150">
+        <v>260</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149">
         <v>88107</v>
       </c>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150">
+      <c r="C39" s="214"/>
+      <c r="D39" s="149">
         <v>35175</v>
       </c>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150">
+      <c r="C40" s="214"/>
+      <c r="D40" s="149">
         <v>67759</v>
       </c>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150">
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>1383869</v>
+      </c>
+      <c r="D41" s="149">
         <v>1345985</v>
       </c>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150">
+      <c r="C42" s="149">
+        <v>4325</v>
+      </c>
+      <c r="D42" s="149">
         <v>4253</v>
       </c>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150">
+      <c r="C43" s="214"/>
+      <c r="D43" s="149">
         <v>795161</v>
       </c>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>2.175+2.373</f>
         <v>4.548</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="152">
+        <v>233</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4959718287588369E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>6.469141397590486E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3547,7 +3559,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59">
         <v>28822</v>
@@ -3579,7 +3591,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3591,7 +3603,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3612,8 +3624,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3671,7 +3683,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3689,7 +3701,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3701,7 +3713,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3716,7 +3728,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3770,16 +3782,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247">
+      <c r="C72" s="244">
         <v>79740</v>
       </c>
-      <c r="D72" s="248">
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3805,7 +3817,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3839,21 +3851,21 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83">
+        <v>264</v>
+      </c>
+      <c r="C82" s="214">
         <v>83483</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59">
+        <v>265</v>
+      </c>
+      <c r="C83" s="214">
         <v>1379544</v>
       </c>
     </row>
@@ -3871,20 +3883,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="197">
+        <v>232</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>271</v>
-      </c>
-      <c r="D87" s="269">
+        <v>230</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3914,10 +3926,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3929,12 +3941,12 @@
         <f>C25</f>
         <v>1009309</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>1009309</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>1009309</v>
       </c>
@@ -3947,75 +3959,75 @@
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>0</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>874963</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.8668930922046667</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>874963</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>874963</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>3730</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>3.6955976811858409E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>3730</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>25869</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>2.5630406545468234E-2</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>25869</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>25869</v>
       </c>
@@ -4028,12 +4040,12 @@
         <f>MAX(C31,0)</f>
         <v>22422</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>2.2215198715160572E-2</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>22422</v>
       </c>
@@ -4046,12 +4058,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>225.33333333333334</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>2.2325505205376484E-4</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>225.33333333333334</v>
       </c>
@@ -4060,16 +4072,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>4.548</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>4.548</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>4.548</v>
       </c>
@@ -4150,7 +4162,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4202,11 +4214,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>74.849999999999994</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>272</v>
+      <c r="G3" s="131">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4244,7 +4256,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1607902.9962814499</v>
+        <v>1613273.4137706999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4254,11 +4266,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4280,11 +4292,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0010</v>
       </c>
@@ -4292,8 +4304,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4302,10 +4314,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4313,7 +4325,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4321,13 +4333,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4336,12 +4348,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="174">
+        <v>234</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4351,7 +4363,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4362,7 +4374,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4370,13 +4382,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4386,129 +4398,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="175">
+        <v>235</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>9.7221014093545888E-2</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.68239969489618901</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>0.49926073663179837</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.13288365274327946</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>1.0913068250508218</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>3.6955976811858409E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.425401190083679</v>
+        <v>24.526704285056066</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>2.2215198715160572E-2</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>1.5866671803691612</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>4.784560526062881E-2</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4959718287588369E-2</v>
+        <v>6.469141397590486E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4525,10 +4537,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4536,22 +4548,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>42.485984283406474</v>
-      </c>
-      <c r="D29" s="129">
+        <v>42.398371999659581</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>76.447775594225675</v>
+        <v>76.29012915340175</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>49.983510921654677</v>
+        <v>49.880437646658329</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>66.476326603674508</v>
+        <v>66.339242742088487</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4559,23 +4571,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -4583,9 +4595,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4593,17 +4605,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -4611,26 +4623,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4638,9 +4650,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>agree</v>
       </c>
@@ -4653,16 +4665,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5614,10 +5626,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5643,16 +5655,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5666,11 +5678,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5695,7 +5707,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5703,7 +5715,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5767,47 +5779,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1009309</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>937259</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5869,47 +5881,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5920,47 +5932,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1009309</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>937259</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5971,47 +5983,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>874963</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>808160</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6022,47 +6034,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6071,49 +6083,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>225.33333333333334</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>180</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6121,50 +6133,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.13288365274327946</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.1375489592524585</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6172,50 +6184,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>134120.66666666666</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>128919</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6223,50 +6235,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>4.0348332415444249E-2</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6277,47 +6289,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>22422</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>22811</v>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6326,49 +6338,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="199">
+        <v>237</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>3730</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>2330</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6379,47 +6391,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>0.20522159219822672</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>0.21347034277611632</v>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6430,47 +6442,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>207132</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>200077</v>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6479,49 +6491,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0.17959118565275847</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0.20227919923948451</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6532,47 +6544,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>181263</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>189588</v>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6583,47 +6595,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>82099.666666666657</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>93289</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6634,47 +6646,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>6.1006837351098617E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>7.4650390126955304E-2</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6685,7 +6697,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>61574.749999999993</v>
       </c>
@@ -6733,50 +6745,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.11994268706206887</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6840,7 +6852,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>2021607</v>
       </c>
       <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
@@ -6893,43 +6905,43 @@
         <f>Fin_Analysis!C13</f>
         <v>100939</v>
       </c>
-      <c r="D28" s="199">
+      <c r="D28" s="198">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>68428</v>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6944,43 +6956,43 @@
         <f>Fin_Analysis!C18</f>
         <v>12616</v>
       </c>
-      <c r="D29" s="199">
+      <c r="D29" s="198">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>12026</v>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6989,49 +7001,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199">
+        <v>637738</v>
+      </c>
+      <c r="D30" s="198">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>558565</v>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7046,43 +7058,43 @@
         <f>Fin_Analysis!I15</f>
         <v>33448</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>35175</v>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7097,43 +7109,43 @@
         <f>Fin_Analysis!I34</f>
         <v>62222</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>67759</v>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7197,45 +7209,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199">
+        <v>1383869</v>
+      </c>
+      <c r="D34" s="198">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>1345985</v>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7248,45 +7260,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199">
+        <v>4325</v>
+      </c>
+      <c r="D35" s="198">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>4253</v>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7301,43 +7313,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>795161</v>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7399,47 +7411,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.11138591111982202</v>
       </c>
-      <c r="D38" s="155">
+      <c r="D38" s="154">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>0.11620720955408788</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7448,7 +7460,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7468,47 +7480,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7517,49 +7529,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.8668930922046667</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.86225899137805029</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7570,47 +7582,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>2.2215198715160572E-2</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>2.4337989819249534E-2</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7621,47 +7633,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>3.6955976811858409E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>2.4859723939700765E-3</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7672,47 +7684,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>2.2325505205376484E-4</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>1.9204936949125055E-4</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7721,49 +7733,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>2.5630406545468234E-2</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>1.1191143536631816E-2</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7774,47 +7786,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>8.1342449801464822E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>9.9533853502607073E-2</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7823,9 +7835,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>245</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>263</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7840,50 +7854,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272">
+        <v>0.49926073663179837</v>
+      </c>
+      <c r="D48" s="269">
         <f t="shared" si="41"/>
         <v>0.49211572287416977</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7892,49 +7906,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="153">
+        <v>252</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.10000802529255164</v>
       </c>
-      <c r="D49" s="153">
+      <c r="D49" s="152">
         <f t="shared" si="42"/>
         <v>7.3008634753040522E-2</v>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7943,49 +7957,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="153">
+        <v>253</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>1.2499640843388893E-2</v>
       </c>
-      <c r="D50" s="153">
+      <c r="D50" s="152">
         <f t="shared" si="43"/>
         <v>1.2831031763898772E-2</v>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7994,49 +8008,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="153">
+        <v>243</v>
+      </c>
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>0.31120055517002082</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8045,7 +8059,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8062,49 +8076,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>247</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156">
+        <v>0.68239969489618901</v>
+      </c>
+      <c r="D53" s="155">
         <f t="shared" si="45"/>
         <v>0.70448767425376069</v>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8114,47 +8128,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>0.85815476812654601</v>
       </c>
-      <c r="D54" s="157">
+      <c r="D54" s="156">
         <f t="shared" si="46"/>
         <v>0.90629918200011661</v>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8164,47 +8178,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>4.5432583973138346E-2</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>2.4976149385243705E-2</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8214,47 +8228,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8262,149 +8276,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>248</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274">
+        <v>9.7221014093545874E-2</v>
+      </c>
+      <c r="D58" s="271">
         <f t="shared" si="49"/>
         <v>9.6084016778313408E-2</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274">
+        <v>5.9512176970554512E-2</v>
+      </c>
+      <c r="D59" s="271">
         <f t="shared" si="50"/>
         <v>6.9528788163359001E-2</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9700,8 +9714,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9737,8 +9751,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>1383869</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9750,8 +9764,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>1379544</v>
       </c>
       <c r="K3" s="24"/>
@@ -9761,8 +9775,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>4325</v>
       </c>
       <c r="E4" s="37"/>
@@ -9793,13 +9807,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-24071.052018344828</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>1.0173940250257394</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9819,9 +9833,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9849,11 +9863,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9896,7 +9910,7 @@
         <f>Inputs!C48</f>
         <v>172891</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9924,7 +9938,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9952,7 +9966,7 @@
         <f>Inputs!C50</f>
         <v>100939</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9980,7 +9994,7 @@
         <f>Inputs!C51</f>
         <v>176336</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9993,7 +10007,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10008,7 +10022,7 @@
         <f>Inputs!C52</f>
         <v>19344</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10035,7 +10049,7 @@
         <f>Inputs!C53</f>
         <v>22728</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10057,7 +10071,7 @@
         <f>Inputs!C54</f>
         <v>28822</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10079,7 +10093,7 @@
         <f>Inputs!C55</f>
         <v>12616</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10100,7 +10114,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10108,7 +10122,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10125,7 +10139,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10133,7 +10147,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10152,7 +10166,7 @@
         <f>Inputs!C58</f>
         <v>507</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10173,7 +10187,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10338,7 +10352,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>554255</v>
       </c>
@@ -10367,7 +10381,7 @@
         <f>Inputs!C60</f>
         <v>75495</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10393,7 +10407,7 @@
         <f>Inputs!C61</f>
         <v>182795</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10420,7 +10434,7 @@
         <f>Inputs!C62</f>
         <v>5625</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10447,7 +10461,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10463,7 +10477,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10477,7 +10491,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10504,7 +10518,7 @@
         <f>Inputs!C65</f>
         <v>185013</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10512,7 +10526,7 @@
         <f t="shared" si="1"/>
         <v>18501.3</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10530,7 +10544,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10538,7 +10552,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10557,7 +10571,7 @@
         <f>Inputs!C67</f>
         <v>94862</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10565,7 +10579,7 @@
         <f t="shared" si="1"/>
         <v>9486.2000000000007</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10584,7 +10598,7 @@
         <f>Inputs!C68</f>
         <v>781712</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10605,7 +10619,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10626,7 +10640,7 @@
         <f>Inputs!C70</f>
         <v>34291</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10647,7 +10661,7 @@
         <f>Inputs!C71</f>
         <v>47891</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10668,7 +10682,7 @@
         <f>Inputs!C72</f>
         <v>79740</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10814,8 +10828,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>83483</v>
       </c>
       <c r="J48" s="8"/>
@@ -10841,8 +10855,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>637738</v>
       </c>
       <c r="J49" s="87"/>
@@ -10865,9 +10879,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="e">
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>#DIV/0!</v>
+        <v>P/B Approach</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10885,13 +10899,13 @@
         <f>MAX(D4,0)</f>
         <v>4325</v>
       </c>
-      <c r="D53" s="29" t="e">
+      <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="88" t="e">
+        <v>1.0913068250508218</v>
+      </c>
+      <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>#DIV/0!</v>
+        <v>4719.9020183448038</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10912,7 +10926,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11012,7 +11026,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>248386</v>
       </c>
@@ -11020,7 +11034,7 @@
         <f t="shared" si="2"/>
         <v>0.62645197394378105</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>155601.9</v>
       </c>
@@ -11051,11 +11065,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>95670</v>
@@ -11132,12 +11146,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>542068</v>
       </c>
@@ -11216,17 +11230,17 @@
         <f>Data!C6</f>
         <v>1009309</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>1009309</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>1009309</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11237,23 +11251,23 @@
         <f>Data!C8</f>
         <v>0</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>0</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>0</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0</v>
       </c>
@@ -11263,48 +11277,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>1009309</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>1009309</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>1009309</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>874963</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.8668930922046667</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>874963</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.8668930922046667</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>874963</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.8668930922046667</v>
       </c>
@@ -11318,54 +11332,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>225.33333333333334</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>2.2325505205376484E-4</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>225.33333333333334</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>2.2325505205376484E-4</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>225.33333333333334</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>2.2325505205376484E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>134120.66666666666</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.13288365274327946</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>134120.66666666666</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.13288365274327946</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>134120.66666666666</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.13288365274327946</v>
       </c>
@@ -11379,55 +11393,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>22422</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>2.2215198715160572E-2</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>22422</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>2.2215198715160572E-2</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>22422</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>2.2215198715160572E-2</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>3730</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>3.6955976811858409E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>3730</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>3.6955976811858409E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>3730</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>3.6955976811858409E-3</v>
       </c>
@@ -11435,29 +11449,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>25869</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>2.5630406545468234E-2</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>25869</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>2.5630406545468234E-2</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>25869</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>2.5630406545468234E-2</v>
       </c>
@@ -11467,27 +11481,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>82099.666666666657</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>8.1342449801464822E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>82099.666666666657</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>8.1342449801464822E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>82099.666666666657</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>8.1342449801464822E-2</v>
       </c>
@@ -11497,49 +11511,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>61574.749999999993</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>6.1006837351098617E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>61574.749999999993</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>6.1006837351098617E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>61574.749999999993</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>6.1006837351098617E-2</v>
       </c>
@@ -11549,69 +11563,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>2.8663856265948864</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>2.8663856265948864</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>2.8663856265948864</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0940985665610434E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>4.0771886364255321E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0940985665610434E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>4.0771886364255321E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0940985665610434E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>4.0771886364255321E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>4.548</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>1.5866671803691612</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>4.548</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>1.5866671803691612</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>4.548</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>1.5866671803691612</v>
       </c>
@@ -11619,23 +11633,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4959718287588369E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>6.469141397590486E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4959718287588369E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>6.469141397590486E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4959718287588369E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>6.469141397590486E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11657,7 +11671,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11680,27 +11694,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.532053265073614</v>
+        <v>56.440729918175158</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.532053265073614</v>
+        <v>56.440729918175158</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11708,27 +11722,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>100.53469394875485</v>
+        <v>100.32737677625178</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>100.53469394875485</v>
+        <v>100.32737677625178</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11742,25 +11756,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11771,21 +11785,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>603772.87424581614</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>602797.52386566834</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.106421682038327</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>28.061017838570841</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.106421682038327</v>
-      </c>
-      <c r="I97" s="123">
+        <v>28.061017838570841</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.380560767817428</v>
+        <v>37.320175239235056</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11793,18 +11807,18 @@
       <c r="B98" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91" t="e">
+      <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123" t="e">
+        <v>-5041.9566552601991</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="215"/>
+        <v>-0.23470971602080831</v>
+      </c>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11815,46 +11829,46 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91" t="e">
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>597755.56721040816</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>23.652361904167527</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>27.826308122550031</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>27.826308122550035</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>27.826308122550039</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#DIV/0!</v>
+        <v>37.085465523214246</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11866,25 +11880,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11895,27 +11909,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1073729.2849110907</v>
+        <v>1071515.098836232</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>42.485984283406474</v>
-      </c>
-      <c r="E103" s="123">
+        <v>42.398371999659581</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>49.983510921654677</v>
+        <v>49.880437646658329</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>49.983510921654677</v>
-      </c>
-      <c r="H103" s="123">
+        <v>49.880437646658329</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>49.983510921654677</v>
+        <v>49.880437646658329</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>66.476326603674508</v>
+        <v>66.339242742088487</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11927,25 +11941,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11954,29 +11968,29 @@
       <c r="B106" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="91" t="e">
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>834635.33302332007</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="123" t="e">
+        <v>33.025366951913554</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>38.853372884604184</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="123" t="e">
+        <v>38.853372884604184</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="123" t="e">
+        <v>38.853372884604184</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#DIV/0!</v>
+        <v>51.71235413265137</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11987,14 +12001,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43AF66BA-2DCD-434C-B784-CD25CE3771E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66084929-61FA-44F1-9BAE-12478E3B7488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.469141397590486E-2</v>
+        <v>6.4560446038990721E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4215,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>75.099999999999994</v>
+        <v>75.25</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>274</v>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1613273.4137706999</v>
+        <v>1616495.6642642501</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4305,7 +4305,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0913068250508218</v>
+        <v>1.0935206604901075</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.526704285056066</v>
+        <v>24.576459391419128</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.469141397590486E-2</v>
+        <v>6.4560446038990721E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4550,20 +4550,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>42.398371999659581</v>
+        <v>42.370978834841097</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>76.29012915340175</v>
+        <v>76.24083886268167</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>49.880437646658329</v>
+        <v>49.848210393930707</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>66.339242742088487</v>
+        <v>66.296381619723192</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -9809,11 +9809,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-24071.052018344828</v>
+        <v>-24080.62685661974</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0173940250257394</v>
+        <v>1.017400943916382</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10901,11 +10901,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0913068250508218</v>
+        <v>1.0935206604901075</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4719.9020183448038</v>
+        <v>4729.4768566197154</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11586,17 +11586,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0771886364255321E-2</v>
+        <v>4.0689343573596694E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0771886364255321E-2</v>
+        <v>4.0689343573596694E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0771886364255321E-2</v>
+        <v>4.0689343573596694E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11637,17 +11637,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.469141397590486E-2</v>
+        <v>6.4560446038990721E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.469141397590486E-2</v>
+        <v>6.4560446038990721E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.469141397590486E-2</v>
+        <v>6.4560446038990721E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11707,14 +11707,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.440729918175158</v>
+        <v>56.416591341028678</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.440729918175158</v>
+        <v>56.416591341028678</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11735,14 +11735,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>100.32737677625178</v>
+        <v>100.2625562598447</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>100.32737677625178</v>
+        <v>100.2625562598447</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11785,21 +11785,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>602797.52386566834</v>
+        <v>602539.71935898252</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.061017838570841</v>
+        <v>28.049016699590407</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.061017838570841</v>
+        <v>28.049016699590407</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.320175239235056</v>
+        <v>37.304214142870102</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11809,14 +11809,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-5041.9566552601991</v>
+        <v>-5052.0271412560587</v>
       </c>
       <c r="D98" s="210"/>
       <c r="E98" s="210"/>
       <c r="F98" s="210"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.23470971602080831</v>
+        <v>-0.23517851039368609</v>
       </c>
       <c r="I98" s="212"/>
       <c r="K98" s="24"/>
@@ -11848,27 +11848,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>597755.56721040816</v>
+        <v>597487.69221772649</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>23.652361904167527</v>
+        <v>23.641762460817212</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>27.826308122550031</v>
+        <v>27.813838189196719</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>27.826308122550035</v>
+        <v>27.813838189196719</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>27.826308122550039</v>
+        <v>27.813838189196719</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>37.085465523214246</v>
+        <v>37.069035632476414</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11909,27 +11909,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1071515.098836232</v>
+        <v>1070822.8036295164</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>42.398371999659581</v>
+        <v>42.370978834841097</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>49.880437646658329</v>
+        <v>49.848210393930707</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>49.880437646658329</v>
+        <v>49.848210393930707</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>49.880437646658329</v>
+        <v>49.848210393930707</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>66.339242742088487</v>
+        <v>66.296381619723192</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11970,27 +11970,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>834635.33302332007</v>
+        <v>834155.24792362144</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>33.025366951913554</v>
+        <v>33.006370647829158</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>38.853372884604184</v>
+        <v>38.831024291563715</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>38.853372884604184</v>
+        <v>38.831024291563715</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>38.853372884604184</v>
+        <v>38.831024291563715</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>51.71235413265137</v>
+        <v>51.682708626099803</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66084929-61FA-44F1-9BAE-12478E3B7488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A7F183-5B4D-468F-BDE8-5C071429F948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -844,10 +841,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -959,10 +952,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -980,6 +969,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1681,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1832,7 +1829,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2022,9 +2018,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2360,6 +2353,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2815,7 +2809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2829,172 +2823,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>21481669957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>21481669957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>272</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3042,452 +3036,453 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>1009309</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>937259</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>0</v>
+      </c>
+      <c r="D26" s="148">
+        <v>0</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>874963</v>
+      </c>
+      <c r="D27" s="148">
+        <v>808160</v>
+      </c>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>0</v>
-      </c>
-      <c r="D26" s="149">
-        <v>0</v>
-      </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="148">
+        <v>3730</v>
+      </c>
+      <c r="D29" s="148">
+        <v>2330</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>169</v>
+      </c>
+      <c r="D30" s="148">
+        <v>135</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148">
+        <v>22422</v>
+      </c>
+      <c r="D31" s="148">
+        <v>22811</v>
+      </c>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>874963</v>
-      </c>
-      <c r="D27" s="149">
-        <v>808160</v>
-      </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148">
+        <v>207132</v>
+      </c>
+      <c r="D32" s="148">
+        <v>200077</v>
+      </c>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="C29" s="149">
-        <v>3730</v>
-      </c>
-      <c r="D29" s="149">
-        <v>2330</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>169</v>
-      </c>
-      <c r="D30" s="149">
-        <v>135</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149">
-        <v>22422</v>
-      </c>
-      <c r="D31" s="149">
-        <v>22811</v>
-      </c>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149">
-        <v>207132</v>
-      </c>
-      <c r="D32" s="149">
-        <v>200077</v>
-      </c>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149">
+      <c r="C33" s="148">
         <v>181263</v>
       </c>
-      <c r="D33" s="149">
+      <c r="D33" s="148">
         <v>189588</v>
       </c>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149">
+      <c r="B34" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148">
         <v>498104</v>
       </c>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149">
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148">
         <v>68428</v>
       </c>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149">
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148">
         <v>12026</v>
       </c>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="148">
         <v>637738</v>
       </c>
-      <c r="D37" s="149">
+      <c r="D37" s="148">
         <v>558565</v>
       </c>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149">
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148">
         <v>88107</v>
       </c>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149">
+      <c r="C39" s="212"/>
+      <c r="D39" s="148">
         <v>35175</v>
       </c>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149">
+      <c r="C40" s="212"/>
+      <c r="D40" s="148">
         <v>67759</v>
       </c>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148">
+        <v>1383869</v>
+      </c>
+      <c r="D41" s="148">
+        <v>1345985</v>
+      </c>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>1383869</v>
-      </c>
-      <c r="D41" s="149">
-        <v>1345985</v>
-      </c>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149">
+      <c r="C42" s="148">
         <v>4325</v>
       </c>
-      <c r="D42" s="149">
+      <c r="D42" s="148">
         <v>4253</v>
       </c>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149">
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148">
         <v>795161</v>
       </c>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>2.175+2.373</f>
         <v>4.548</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="C45" s="151">
+        <v>231</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4560446038990721E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>6.4675264568049493E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59">
         <v>172891</v>
@@ -3495,21 +3490,21 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59">
         <v>100939</v>
@@ -3518,11 +3513,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59">
         <v>176336</v>
@@ -3530,11 +3525,11 @@
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59">
         <v>19344</v>
@@ -3542,11 +3537,11 @@
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59">
         <v>22728</v>
@@ -3555,11 +3550,11 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C54" s="59">
         <v>28822</v>
@@ -3567,11 +3562,11 @@
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59">
         <v>12616</v>
@@ -3580,36 +3575,36 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59">
         <v>507</v>
@@ -3618,22 +3613,22 @@
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59">
         <v>75495</v>
@@ -3642,11 +3637,11 @@
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59">
         <v>182795</v>
@@ -3655,11 +3650,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59">
         <v>5625</v>
@@ -3668,32 +3663,32 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59">
         <v>185013</v>
@@ -3701,25 +3696,25 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59">
         <v>94862</v>
@@ -3728,13 +3723,13 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59">
         <v>781712</v>
@@ -3743,22 +3738,22 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59">
         <v>34291</v>
@@ -3766,11 +3761,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59">
         <v>47891</v>
@@ -3779,29 +3774,29 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244">
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242">
         <v>79740</v>
       </c>
-      <c r="D72" s="245">
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59">
         <v>33448</v>
@@ -3809,33 +3804,33 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>554255</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59">
         <v>62222</v>
@@ -3843,77 +3838,77 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="C82" s="214">
+        <v>261</v>
+      </c>
+      <c r="C82" s="212">
         <v>83483</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>265</v>
-      </c>
-      <c r="C83" s="214">
+        <v>262</v>
+      </c>
+      <c r="C83" s="212">
         <v>1379544</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" s="196">
+        <v>230</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>273</v>
-      </c>
-      <c r="D87" s="266">
+        <v>229</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3922,166 +3917,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>1009309</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>1009309</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>1009309</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>0</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>229</v>
+      <c r="B93" s="103" t="s">
+        <v>228</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>874963</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.8668930922046667</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>874963</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>874963</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>237</v>
+      <c r="B94" s="103" t="s">
+        <v>235</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>3730</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>3.6955976811858409E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>3730</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>25869</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>2.5630406545468234E-2</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>25869</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>25869</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>22422</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>2.2215198715160572E-2</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>22422</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>225.33333333333334</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>2.2325505205376484E-4</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>225.33333333333334</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>4.548</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>4.548</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>4.548</v>
       </c>
@@ -4094,32 +4089,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4178,13 +4173,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4195,82 +4190,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0941.HK : 中国移动</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0941.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>75.25</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>274</v>
+      <c r="G3" s="130">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>中国移动</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>21481669957</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>1616495.6642642501</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>1613273.4137706999</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4281,31 +4276,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0010</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4314,280 +4309,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>9.7221014093545888E-2</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.68239969489618901</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>0.49926073663179837</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.13288365274327946</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0935206604901075</v>
+        <v>1.0915793242687344</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>3.6955976811858409E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>239</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.576459391419128</v>
+        <v>24.532828600951682</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>2.2215198715160572E-2</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>1.5866671803691612</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>4.784560526062881E-2</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4560446038990721E-2</v>
+        <v>6.4675264568049493E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>238</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>42.370978834841097</v>
-      </c>
-      <c r="D29" s="128">
+        <v>42.384573146950402</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>76.24083886268167</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>76.26529998648563</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>49.848210393930707</v>
-      </c>
-      <c r="G29" s="286">
+        <v>49.864203702294596</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>66.296381619723192</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>66.317652162161423</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -4595,9 +4590,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4605,17 +4600,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -4623,26 +4618,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4650,9 +4645,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>agree</v>
       </c>
@@ -4665,16 +4660,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5626,10 +5621,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5655,59 +5650,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>134120.66666666666</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5715,19 +5710,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5776,928 +5771,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1009309</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>937259</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>7.687309484358118E-2</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1009309</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>937259</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>874963</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>808160</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>225.33333333333334</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>180</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.13288365274327946</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.1375489592524585</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>134120.66666666666</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>128919</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>4.0348332415444249E-2</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>22422</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>22811</v>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>3730</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>2330</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>0.20522159219822672</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>0.21347034277611632</v>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>207132</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>200077</v>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0.17959118565275847</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0.20227919923948451</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>181263</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>189588</v>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>82099.666666666657</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>93289</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>6.1006837351098617E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>7.4650390126955304E-2</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>61574.749999999993</v>
       </c>
@@ -6741,63 +6736,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.11994268706206887</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6843,11 +6838,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6894,266 +6889,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>100939</v>
       </c>
-      <c r="D28" s="198">
+      <c r="D28" s="196">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>68428</v>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>12616</v>
       </c>
-      <c r="D29" s="198">
+      <c r="D29" s="196">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>12026</v>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>259</v>
+      <c r="B30" s="93" t="s">
+        <v>257</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>637738</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>558565</v>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>33448</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="196">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>35175</v>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>62222</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="196">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>67759</v>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7200,165 +7195,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>1383869</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>1345985</v>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>4325</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>4253</v>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="196">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>795161</v>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7404,63 +7399,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.11138591111982202</v>
       </c>
-      <c r="D38" s="154">
+      <c r="D38" s="153">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>0.11620720955408788</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7473,372 +7468,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.8668930922046667</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.86225899137805029</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>2.2215198715160572E-2</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>2.4337989819249534E-2</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>3.6955976811858409E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>2.4859723939700765E-3</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>2.2325505205376484E-4</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>1.9204936949125055E-4</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>2.5630406545468234E-2</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>1.1191143536631816E-2</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>8.1342449801464822E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>9.9533853502607073E-2</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>263</v>
+      <c r="B47" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>260</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7850,216 +7845,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>0.49926073663179837</v>
       </c>
-      <c r="D48" s="269">
+      <c r="D48" s="267">
         <f t="shared" si="41"/>
         <v>0.49211572287416977</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.10000802529255164</v>
       </c>
-      <c r="D49" s="152">
+      <c r="D49" s="151">
         <f t="shared" si="42"/>
         <v>7.3008634753040522E-2</v>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>1.2499640843388893E-2</v>
       </c>
-      <c r="D50" s="152">
+      <c r="D50" s="151">
         <f t="shared" si="43"/>
         <v>1.2831031763898772E-2</v>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>0.31120055517002082</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>246</v>
+      <c r="B52" s="101" t="s">
+        <v>244</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8075,350 +8070,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.68239969489618901</v>
       </c>
-      <c r="D53" s="155">
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
         <v>0.70448767425376069</v>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>0.85815476812654601</v>
       </c>
-      <c r="D54" s="156">
+      <c r="D54" s="155">
         <f t="shared" si="46"/>
         <v>0.90629918200011661</v>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>4.5432583973138346E-2</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>2.4976149385243705E-2</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>4.6261321572024887E-2</v>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>9.7221014093545874E-2</v>
       </c>
-      <c r="D58" s="271">
+      <c r="D58" s="269">
         <f t="shared" si="49"/>
         <v>9.6084016778313408E-2</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>250</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>5.9512176970554512E-2</v>
       </c>
-      <c r="D59" s="271">
+      <c r="D59" s="269">
         <f t="shared" si="50"/>
         <v>6.9528788163359001E-2</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9697,7 +9692,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9715,7 +9710,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9733,25 +9728,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>1383869</v>
       </c>
@@ -9759,12 +9754,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>1379544</v>
       </c>
@@ -9772,28 +9767,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>4325</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9806,25 +9801,25 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-24080.62685661974</v>
+        <v>-24072.230577462298</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.017400943916382</v>
-      </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+        <v>1.0173948766664058</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>0.9401087946883655</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9832,7 +9827,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9842,287 +9837,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>0.81220016057590816</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>172891</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>155601.9</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>33448</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>100939</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>60563.399999999994</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>176336</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>105801.59999999999</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>19344</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>9672</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>33448</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>22728</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>13636.8</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>28822</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>2882.2000000000003</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>12616</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>6308</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10133,21 +10128,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10160,45 +10155,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>507</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>456.3</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10206,17 +10201,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10226,19 +10221,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.71521816396618132</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>321966.89999999997</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.90714782000111571</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10248,17 +10243,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.36943888058227775</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>26191</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>7.3793637028058551E-2</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10267,7 +10262,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10277,17 +10272,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0.5</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>6308</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>1.7772909105150371E-2</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10300,7 +10295,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10310,17 +10305,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0.9</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>456.3</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>1.2856338656753511E-3</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10347,12 +10342,12 @@
         <f>SUM(E24:E27)</f>
         <v>354922.19999999995</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>554255</v>
       </c>
@@ -10362,171 +10357,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>75495</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>182795</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>109677</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>62222</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>5625</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>2812.5</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>62222</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>185013</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>18501.3</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10534,25 +10529,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10560,26 +10555,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>94862</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>9486.2000000000007</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10587,113 +10582,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>781712</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>78171.199999999997</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>34291</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>1714.5500000000002</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>47891</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>43101.9</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>79740</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10701,17 +10696,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10721,16 +10716,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0.42462735684695496</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>109677</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10740,16 +10735,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.11180247379850816</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>21313.8</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10759,14 +10754,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>87657.4</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10779,7 +10774,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10789,14 +10784,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0.27677801657588225</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>44816.450000000004</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10809,13 +10804,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>1487424</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.17712814234542404</v>
       </c>
@@ -10823,12 +10818,12 @@
         <f>SUM(E30:E42)</f>
         <v>263464.65000000002</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>83483</v>
       </c>
@@ -10839,109 +10834,109 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>2021607</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
         <v>0.30588875582642916</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>618386.85</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>637738</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>P/B Approach</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>4325</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0935206604901075</v>
-      </c>
-      <c r="E53" s="88">
+        <v>1.0915793242687344</v>
+      </c>
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4729.4768566197154</v>
-      </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+        <v>4721.0805774622759</v>
+      </c>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>95670</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10949,61 +10944,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11017,35 +11012,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>246464.39999999997</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>248386</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.62645197394378105</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>155601.9</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11059,29 +11054,29 @@
         <f>E61+E62</f>
         <v>402066.29999999993</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>95670</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11095,9 +11090,9 @@
         <f>E63-E64</f>
         <v>306396.29999999993</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11105,28 +11100,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11140,29 +11135,29 @@
         <f>E49-E63</f>
         <v>216320.55000000005</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>542068</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11176,29 +11171,29 @@
         <f>E68-E69</f>
         <v>-325747.44999999995</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11208,66 +11203,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>1009309</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>1009309</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>1009309</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>0</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>0</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>0</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0</v>
       </c>
@@ -11275,50 +11270,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>1009309</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>1009309</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>1009309</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>229</v>
+      <c r="B77" s="103" t="s">
+        <v>228</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>874963</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.8668930922046667</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>874963</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.8668930922046667</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>874963</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.8668930922046667</v>
       </c>
@@ -11326,60 +11321,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>225.33333333333334</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>2.2325505205376484E-4</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>225.33333333333334</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>2.2325505205376484E-4</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>225.33333333333334</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>2.2325505205376484E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>134120.66666666666</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.13288365274327946</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>134120.66666666666</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.13288365274327946</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>134120.66666666666</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.13288365274327946</v>
       </c>
@@ -11387,61 +11382,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>22422</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>2.2215198715160572E-2</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>22422</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>2.2215198715160572E-2</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>22422</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>2.2215198715160572E-2</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>237</v>
+      <c r="B81" s="103" t="s">
+        <v>235</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>3730</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>3.6955976811858409E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>3730</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>3.6955976811858409E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>3730</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>3.6955976811858409E-3</v>
       </c>
@@ -11449,59 +11444,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>25869</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>2.5630406545468234E-2</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>25869</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>2.5630406545468234E-2</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>25869</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>2.5630406545468234E-2</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>82099.666666666657</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>8.1342449801464822E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>82099.666666666657</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>8.1342449801464822E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>82099.666666666657</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>8.1342449801464822E-2</v>
       </c>
@@ -11509,184 +11504,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>61574.749999999993</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>6.1006837351098617E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>61574.749999999993</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>6.1006837351098617E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>61574.749999999993</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>6.1006837351098617E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>2.8663856265948864</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>2.8663856265948864</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>2.8663856265948864</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0689343573596694E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>4.0761708169322466E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0689343573596694E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>4.0761708169322466E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0689343573596694E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>4.0761708169322466E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>4.548</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>1.5866671803691612</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>4.548</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>1.5866671803691612</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>4.548</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>1.5866671803691612</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4560446038990721E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>6.4675264568049493E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4560446038990721E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>6.4675264568049493E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4560446038990721E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>6.4675264568049493E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11694,55 +11689,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.416591341028678</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>56.423881132568432</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.416591341028678</v>
+        <v>56.423881132568432</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>100.2625562598447</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>100.29472451557432</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>100.2625562598447</v>
+        <v>100.29472451557432</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11752,123 +11747,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>602539.71935898252</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>602617.57569245005</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.049016699590407</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>28.052641014349149</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.049016699590407</v>
-      </c>
-      <c r="I97" s="122">
+        <v>28.052641014349149</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.304214142870102</v>
+        <v>37.309034355119579</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>-5041.9566552601991</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>-0.23470971602080831</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>-5052.0271412560587</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.23517851039368609</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>597487.69221772649</v>
-      </c>
-      <c r="D100" s="109">
+        <v>597575.61903718987</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>23.641762460817212</v>
-      </c>
-      <c r="E100" s="109">
+        <v>23.645241603579088</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>27.813838189196719</v>
-      </c>
-      <c r="F100" s="109">
+        <v>27.81793129832834</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>27.813838189196719</v>
-      </c>
-      <c r="H100" s="109">
+        <v>27.81793129832834</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>27.813838189196719</v>
-      </c>
-      <c r="I100" s="109">
+        <v>27.817931298328336</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>37.069035632476414</v>
+        <v>37.074324639098769</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11878,58 +11873,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1070822.8036295164</v>
-      </c>
-      <c r="D103" s="109">
+        <v>1071166.36660131</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>42.370978834841097</v>
-      </c>
-      <c r="E103" s="122">
+        <v>42.384573146950402</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>49.848210393930707</v>
-      </c>
-      <c r="F103" s="109">
+        <v>49.864203702294596</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>49.848210393930707</v>
-      </c>
-      <c r="H103" s="122">
+        <v>49.864203702294596</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>49.848210393930707</v>
-      </c>
-      <c r="I103" s="109">
+        <v>49.864203702294596</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>66.296381619723192</v>
+        <v>66.317652162161423</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11939,58 +11934,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>834155.24792362144</v>
-      </c>
-      <c r="D106" s="109">
+        <v>834370.99281924998</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>33.006370647829158</v>
-      </c>
-      <c r="E106" s="122">
+        <v>33.014907375264741</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>38.831024291563715</v>
-      </c>
-      <c r="F106" s="109">
+        <v>38.841067500311468</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>38.831024291563715</v>
-      </c>
-      <c r="H106" s="122">
+        <v>38.841067500311468</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>38.831024291563715</v>
-      </c>
-      <c r="I106" s="122">
+        <v>38.841067500311468</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>51.682708626099803</v>
+        <v>51.6959884006301</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11999,15 +11994,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A7F183-5B4D-468F-BDE8-5C071429F948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3607250D-CD67-4E23-A7A1-64F5CDA889D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -977,6 +977,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1689,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2333,9 +2341,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2344,9 +2349,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2354,6 +2356,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2809,7 +2823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2831,7 +2845,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2839,7 +2853,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2863,7 +2877,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2872,7 +2886,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2888,7 +2902,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2931,13 +2945,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2946,7 +2963,7 @@
         <v>222</v>
       </c>
       <c r="C18" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -2955,7 +2972,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2964,7 +2981,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2973,7 +2990,7 @@
         <v>215</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2982,7 +2999,7 @@
         <v>214</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3422,7 +3439,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4675264568049493E-2</v>
+        <v>6.412674136016927E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3889,7 +3906,7 @@
         <v>229</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3899,11 +3916,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3917,10 +3934,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4142,8 +4159,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4156,8 +4176,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4200,60 +4220,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0941.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>75.099999999999994</v>
+        <v>75.7</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>中国移动</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>21481669957</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>1613273.4137706999</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>1626162.4157449002</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4276,11 +4296,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4300,7 +4320,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4421,7 +4441,7 @@
         <v>247</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>9.7221014093545888E-2</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4433,20 +4453,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.68239969489618901</v>
+        <v>252</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.13288365274327946</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>259</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>0.49926073663179837</v>
       </c>
@@ -4455,26 +4475,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.13288365274327946</v>
+      <c r="B23" s="275" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>1.4654168333884241</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0915793242687344</v>
+        <v>1.1009164054910701</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>253</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>3.6955976811858409E-3</v>
       </c>
@@ -4483,7 +4503,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.532828600951682</v>
+        <v>24.742675936979396</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4515,7 +4535,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4675264568049493E-2</v>
+        <v>6.412674136016927E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4534,10 +4554,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>236</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4545,22 +4565,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>42.384573146950402</v>
+        <v>42.251844990580402</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>76.26529998648563</v>
+        <v>76.026473642119356</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>49.864203702294596</v>
-      </c>
-      <c r="G29" s="285">
+        <v>49.708052930094595</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>66.317652162161423</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>66.109977080103789</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5591,7 +5611,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7832,7 +7852,7 @@
       <c r="B47" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>260</v>
       </c>
       <c r="D47" s="36"/>
@@ -9759,7 +9779,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>1379544</v>
       </c>
@@ -9804,11 +9824,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-24072.230577462298</v>
+        <v>-24112.613453748902</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0173948766664058</v>
+        <v>1.0174240578073133</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -10806,7 +10826,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>1487424</v>
       </c>
@@ -10823,7 +10843,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>83483</v>
       </c>
@@ -10896,11 +10916,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0915793242687344</v>
+        <v>1.1009164054910701</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4721.0805774622759</v>
+        <v>4761.4634537488782</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -10932,11 +10952,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>95670</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10947,11 +10967,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10963,11 +10983,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11181,19 +11201,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11203,18 +11223,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11581,17 +11601,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0761708169322466E-2</v>
+        <v>4.0416000377123347E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0761708169322466E-2</v>
+        <v>4.0416000377123347E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0761708169322466E-2</v>
+        <v>4.0416000377123347E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11632,17 +11652,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4675264568049493E-2</v>
+        <v>6.412674136016927E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4675264568049493E-2</v>
+        <v>6.412674136016927E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4675264568049493E-2</v>
+        <v>6.412674136016927E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11673,15 +11693,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11702,14 +11722,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.423881132568432</v>
+        <v>56.298709822361594</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.423881132568432</v>
+        <v>56.298709822361594</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11730,14 +11750,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>100.29472451557432</v>
+        <v>99.98064953757617</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>100.29472451557432</v>
+        <v>99.98064953757617</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11780,21 +11800,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>602617.57569245005</v>
+        <v>601280.72275023814</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>28.052641014349149</v>
+        <v>27.990408750987502</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>28.052641014349149</v>
+        <v>27.990408750987502</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.309034355119579</v>
+        <v>37.226267614884009</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11804,14 +11824,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-5041.9566552601991</v>
+        <v>-5082.2385992436375</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.23470971602080831</v>
+        <v>-0.23658489351231946</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11843,27 +11863,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>597575.61903718987</v>
+        <v>596198.48415099445</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>23.645241603579088</v>
+        <v>23.590750278853903</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>27.81793129832834</v>
+        <v>27.753823857475183</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>27.81793129832834</v>
+        <v>27.753823857475183</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>27.817931298328336</v>
+        <v>27.753823857475183</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>37.074324639098769</v>
+        <v>36.989682721371686</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11904,27 +11924,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1071166.36660131</v>
+        <v>1067811.9872493788</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>42.384573146950402</v>
+        <v>42.251844990580402</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>49.864203702294596</v>
+        <v>49.708052930094595</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>49.864203702294596</v>
+        <v>49.708052930094595</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>49.864203702294596</v>
+        <v>49.708052930094595</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>66.317652162161423</v>
+        <v>66.109977080103789</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11965,27 +11985,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>834370.99281924998</v>
+        <v>832005.23570018669</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>33.014907375264741</v>
+        <v>32.921297634717149</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>38.841067500311468</v>
+        <v>38.730938393784889</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>38.841067500311468</v>
+        <v>38.730938393784889</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>38.841067500311468</v>
+        <v>38.730938393784889</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>51.6959884006301</v>
+        <v>51.549829900737734</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3607250D-CD67-4E23-A7A1-64F5CDA889D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F672D840-9642-4196-B121-5095D18DE212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.412674136016927E-2</v>
+        <v>6.4322141547351788E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4230,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>75.7</v>
+        <v>75.349999999999994</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>275</v>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>1626162.4157449002</v>
+        <v>1618643.8312599501</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4320,7 +4320,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.1009164054910701</v>
+        <v>1.0975720008035037</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.742675936979396</v>
+        <v>24.667511718357677</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.412674136016927E-2</v>
+        <v>6.4322141547351788E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4565,20 +4565,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>42.251844990580402</v>
+        <v>42.22338805739804</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>76.026473642119356</v>
+        <v>75.975269244275736</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>49.708052930094595</v>
+        <v>49.674574185174166</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>66.109977080103789</v>
+        <v>66.065451516761513</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9730,7 +9730,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9824,11 +9824,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-24112.613453748902</v>
+        <v>-24098.148903475176</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0174240578073133</v>
+        <v>1.0174136055533256</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -10916,11 +10916,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.1009164054910701</v>
+        <v>1.0975720008035037</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4761.4634537488782</v>
+        <v>4746.9989034751534</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -11601,17 +11601,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0416000377123347E-2</v>
+        <v>4.0539151715727993E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0416000377123347E-2</v>
+        <v>4.0539151715727993E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0416000377123347E-2</v>
+        <v>4.0539151715727993E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11652,17 +11652,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.412674136016927E-2</v>
+        <v>6.4322141547351788E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.412674136016927E-2</v>
+        <v>6.4322141547351788E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.412674136016927E-2</v>
+        <v>6.4322141547351788E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11722,14 +11722,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.298709822361594</v>
+        <v>56.242440787621106</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.298709822361594</v>
+        <v>56.242440787621106</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11750,14 +11750,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>99.98064953757617</v>
+        <v>99.913311823351989</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>99.98064953757617</v>
+        <v>99.913311823351989</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11800,21 +11800,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>601280.72275023814</v>
+        <v>600679.75896289782</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>27.990408750987502</v>
+        <v>27.96243309599684</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>27.990408750987502</v>
+        <v>27.96243309599684</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.226267614884009</v>
+        <v>37.189060969255891</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11824,14 +11824,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-5082.2385992436375</v>
+        <v>-5058.7407985866312</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.23658489351231946</v>
+        <v>-0.23549103997560458</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11841,18 +11841,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-20621.966424493021</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-1.1039766198641896</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-0.95997966944712143</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11863,27 +11863,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>596198.48415099445</v>
+        <v>574999.05173981818</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>23.590750278853903</v>
+        <v>22.690719324660744</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>27.753823857475183</v>
+        <v>26.622965436157045</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>27.753823857475183</v>
+        <v>26.694963911365583</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>27.753823857475183</v>
+        <v>26.766962386574118</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>36.989682721371686</v>
+        <v>35.993590259833162</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11924,27 +11924,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1067811.9872493788</v>
+        <v>1067092.8079004236</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>42.251844990580402</v>
+        <v>42.22338805739804</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>49.708052930094595</v>
+        <v>49.674574185174166</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>49.708052930094595</v>
+        <v>49.674574185174166</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>49.708052930094595</v>
+        <v>49.674574185174166</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>66.109977080103789</v>
+        <v>66.065451516761513</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11985,27 +11985,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>832005.23570018669</v>
+        <v>819499.28233828396</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>32.921297634717149</v>
+        <v>32.457053691029394</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>38.730938393784889</v>
+        <v>38.148769810665605</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>38.730938393784889</v>
+        <v>38.184769048269871</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>38.730938393784889</v>
+        <v>38.220768285874144</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>51.549829900737734</v>
+        <v>51.029520888297341</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F58E7CA8-9C45-4138-88D3-741547244D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{885B2754-6E49-4562-9E79-1EBA8465F287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3624338028385491E-2</v>
+        <v>6.3495113605589376E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4443,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>76.05</v>
+        <v>76.2</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>258</v>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>1633681.0002298499</v>
+        <v>1636903.2507234002</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4533,7 +4533,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4664,7 +4664,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.109609683681051</v>
+        <v>1.1118679467624173</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.938054045627673</v>
+        <v>24.98880764628618</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3624338028385491E-2</v>
+        <v>6.3495113605589376E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4783,20 +4783,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>49.11643266022228</v>
+        <v>41.98717075301581</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>78.851486257898273</v>
+        <v>75.550228191762372</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>57.784038423790918</v>
+        <v>49.396671474136248</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>68.566509789476768</v>
+        <v>65.695850601532499</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -10029,11 +10029,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-24150.211881920568</v>
+        <v>-24159.97886974748</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>1.0174512268732956</v>
+        <v>1.0174582846134623</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11121,11 +11121,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.109609683681051</v>
+        <v>1.1118679467624173</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4799.0618819205456</v>
+        <v>4808.8288697474545</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11247,7 +11247,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-0.95838670121863467</v>
+        <v>-0.95832663648699556</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-0.95838670121863467</v>
+        <v>-0.95832663648699556</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11322,7 +11322,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-0.95838670121863467</v>
+        <v>-0.95832663648699556</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11833,17 +11833,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.009935972431368E-2</v>
+        <v>4.0017915786735005E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.009935972431368E-2</v>
+        <v>4.0017915786735005E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.009935972431368E-2</v>
+        <v>4.0017915786735005E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11884,17 +11884,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3624338028385491E-2</v>
+        <v>6.3495113605589376E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3624338028385491E-2</v>
+        <v>6.3495113605589376E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3624338028385491E-2</v>
+        <v>6.3495113605589376E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11947,21 +11947,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>51.79350013682339</v>
+        <v>56.005110469108381</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>51.79350013682339</v>
+        <v>56.005110469108381</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11982,14 +11982,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>87.88229943778299</v>
+        <v>99.354350208080135</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>87.88229943778299</v>
+        <v>99.354350208080135</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12032,21 +12032,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>731559.71125639824</v>
+        <v>598145.02689006459</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>34.055067074429786</v>
+        <v>27.844437983051382</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>34.055067074429786</v>
+        <v>27.844437983051382</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>40.409724789653914</v>
+        <v>37.032131583521171</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12056,14 +12056,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-5105.736399900642</v>
+        <v>-5115.8068858965016</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.2376787470490343</v>
+        <v>-0.23814754142191208</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12074,17 +12074,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-20587.746806756681</v>
+        <v>-20586.456516015554</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-0.95838670121863467</v>
+        <v>-0.95832663648699556</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-0.95838670121863467</v>
+        <v>-0.95832663648699556</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12096,23 +12096,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>27.930151382237799</v>
+        <v>22.650769234371104</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>32.859001626162119</v>
+        <v>26.647963805142474</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>32.859001626162119</v>
+        <v>26.647963805142474</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>32.859001626162119</v>
+        <v>26.647963805142474</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>39.213659341386247</v>
+        <v>35.835657405612267</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12151,23 +12151,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>49.11643266022228</v>
+        <v>41.98717075301581</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>57.784038423790918</v>
+        <v>49.396671474136248</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>57.784038423790918</v>
+        <v>49.396671474136248</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>57.784038423790918</v>
+        <v>49.396671474136248</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>68.566509789476768</v>
+        <v>65.695850601532499</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12206,23 +12206,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>38.523292021230041</v>
+        <v>32.318969993693457</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>45.321520024976522</v>
+        <v>38.022317639639361</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>45.321520024976522</v>
+        <v>38.022317639639361</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>45.321520024976522</v>
+        <v>38.022317639639361</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>53.890084565431508</v>
+        <v>50.765754003572383</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{885B2754-6E49-4562-9E79-1EBA8465F287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DA54A32-3F68-4733-9189-D41302C8D8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2585,6 +2585,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2601,9 +2604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2817,11 +2817,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3036,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3061,6 +3061,7 @@
       <c r="C4" s="66" t="s">
         <v>279</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3652,7 +3653,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3495113605589376E-2</v>
+        <v>6.3578550022942326E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4348,7 +4349,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4371,6 +4372,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4389,8 +4393,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4426,24 +4430,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0941.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>76.2</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>258</v>
@@ -4453,7 +4460,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>中国移动</v>
       </c>
@@ -4482,11 +4489,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>1636903.2507234002</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>1634755.0837276999</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4509,11 +4516,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4581,10 +4588,10 @@
         <v>220</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4631,7 +4638,7 @@
         <v>221</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4705,7 +4712,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.1118679467624173</v>
+        <v>1.1104088024753274</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4721,7 +4728,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.98880764628618</v>
+        <v>24.956013935464277</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4753,7 +4760,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3495113605589376E-2</v>
+        <v>6.3578550022942326E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4772,10 +4779,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4783,22 +4790,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>41.98717075301581</v>
+        <v>45.995725689156821</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>75.550228191762372</v>
+        <v>84.988807495404828</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>49.396671474136248</v>
-      </c>
-      <c r="G29" s="312">
+        <v>54.112618457831552</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>65.695850601532499</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>73.903310865569424</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5780,15 +5787,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5816,7 +5824,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -10029,11 +10037,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-24159.97886974748</v>
+        <v>-24153.668070705815</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>1.0174582846134623</v>
+        <v>1.0174537243559223</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11121,11 +11129,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.1118679467624173</v>
+        <v>1.1104088024753274</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4808.8288697474545</v>
+        <v>4802.5180707057907</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11833,17 +11841,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0017915786735005E-2</v>
+        <v>4.0070501747032951E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0017915786735005E-2</v>
+        <v>4.0070501747032951E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0017915786735005E-2</v>
+        <v>4.0070501747032951E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11884,17 +11892,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3495113605589376E-2</v>
+        <v>6.3578550022942326E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3495113605589376E-2</v>
+        <v>6.3578550022942326E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3495113605589376E-2</v>
+        <v>6.3578550022942326E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11943,7 +11951,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11954,14 +11962,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.005110469108381</v>
+        <v>61.343416270760166</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.005110469108381</v>
+        <v>61.343416270760166</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11982,14 +11990,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>99.354350208080135</v>
+        <v>108.83980406960463</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>99.354350208080135</v>
+        <v>108.83980406960463</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12032,21 +12040,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>598145.02689006459</v>
+        <v>655159.12864846841</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>27.844437983051382</v>
+        <v>30.498519433540537</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>27.844437983051382</v>
+        <v>30.498519433540537</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>37.032131583521171</v>
+        <v>41.652790548160041</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12056,14 +12064,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-5115.8068858965016</v>
+        <v>-5109.0932285659283</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.23814754142191208</v>
+        <v>-0.23783501183999353</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12096,23 +12104,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>22.650769234371104</v>
+        <v>24.907004117431516</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>26.647963805142474</v>
+        <v>29.302357785213548</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>26.647963805142474</v>
+        <v>29.302357785213548</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>26.647963805142474</v>
+        <v>29.302357785213548</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>35.835657405612267</v>
+        <v>40.456628899833056</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12151,23 +12159,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>41.98717075301581</v>
+        <v>45.995725689156821</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>49.396671474136248</v>
+        <v>54.112618457831552</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>49.396671474136248</v>
+        <v>54.112618457831552</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>49.396671474136248</v>
+        <v>54.112618457831552</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>65.695850601532499</v>
+        <v>73.903310865569424</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12206,23 +12214,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>32.318969993693457</v>
+        <v>35.45136490329417</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>38.022317639639361</v>
+        <v>41.707488121522552</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>38.022317639639361</v>
+        <v>41.707488121522552</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>38.022317639639361</v>
+        <v>41.707488121522552</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>50.765754003572383</v>
+        <v>57.179969882701243</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DA54A32-3F68-4733-9189-D41302C8D8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F537E136-D34A-44A3-8BC6-7F9046423FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2585,31 +2585,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3578550022942326E-2</v>
+        <v>6.3662206009814606E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4430,27 +4430,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0941.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>76.099999999999994</v>
+        <v>76</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>258</v>
@@ -4460,40 +4460,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>中国移动</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>21481669957</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>1634755.0837276999</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>1632606.916732</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4516,11 +4516,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4671,7 +4671,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.1104088024753274</v>
+        <v>1.1089496581882377</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.956013935464277</v>
+        <v>24.923220224642382</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3578550022942326E-2</v>
+        <v>6.3662206009814606E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4779,10 +4779,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4790,22 +4790,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>45.995725689156821</v>
+        <v>49.748773515055895</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>84.988807495404828</v>
+        <v>86.368140522212428</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>54.112618457831552</v>
-      </c>
-      <c r="G29" s="313">
+        <v>58.527968841242227</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>73.903310865569424</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>75.102730888880373</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5788,15 +5788,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10037,11 +10037,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-24153.668070705815</v>
+        <v>-24147.35727166415</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>1.0174537243559223</v>
+        <v>1.0174491640983823</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11129,11 +11129,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.1104088024753274</v>
+        <v>1.1089496581882377</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4802.5180707057907</v>
+        <v>4796.2072716641278</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11169,7 +11169,7 @@
         <f>I15+I34</f>
         <v>95670</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11180,11 +11180,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11196,11 +11196,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11841,17 +11841,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0070501747032951E-2</v>
+        <v>4.0123226091436939E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0070501747032951E-2</v>
+        <v>4.0123226091436939E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0070501747032951E-2</v>
+        <v>4.0123226091436939E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11892,17 +11892,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3578550022942326E-2</v>
+        <v>6.3662206009814606E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3578550022942326E-2</v>
+        <v>6.3662206009814606E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3578550022942326E-2</v>
+        <v>6.3662206009814606E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11955,21 +11955,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>61.343416270760166</v>
+        <v>58.992016264931955</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>61.343416270760166</v>
+        <v>58.992016264931955</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11990,14 +11990,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>108.83980406960463</v>
+        <v>102.36578330313787</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>108.83980406960463</v>
+        <v>102.36578330313787</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12040,21 +12040,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>655159.12864846841</v>
+        <v>724552.59865494736</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>30.498519433540537</v>
+        <v>33.72887676355186</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>30.498519433540537</v>
+        <v>33.72887676355186</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>41.652790548160041</v>
+        <v>43.280687932779486</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12064,14 +12064,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-5109.0932285659283</v>
+        <v>-5102.3795712353558</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.23783501183999353</v>
+        <v>-0.23752248225807501</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12104,23 +12104,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>24.907004117431516</v>
+        <v>27.653073498085774</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>29.302357785213548</v>
+        <v>32.533027644806793</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>29.302357785213548</v>
+        <v>32.533027644806793</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>29.302357785213548</v>
+        <v>32.533027644806793</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>40.456628899833056</v>
+        <v>42.08483881403442</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12159,23 +12159,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>45.995725689156821</v>
+        <v>49.748773515055895</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>54.112618457831552</v>
+        <v>58.527968841242227</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>54.112618457831552</v>
+        <v>58.527968841242227</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>54.112618457831552</v>
+        <v>58.527968841242227</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>73.903310865569424</v>
+        <v>75.102730888880373</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12214,23 +12214,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>35.45136490329417</v>
+        <v>38.700923506570831</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>41.707488121522552</v>
+        <v>45.53049824302451</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>41.707488121522552</v>
+        <v>45.53049824302451</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>41.707488121522552</v>
+        <v>45.53049824302451</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>57.179969882701243</v>
+        <v>58.5937848514574</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFC488CA-FBCB-4E91-9281-8E492D70847B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CADF2061-8916-437A-AC12-00BDADA73821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2598,6 +2598,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2614,9 +2617,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3660213319878825E-2</v>
+        <v>6.3654517650917758E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4456,27 +4456,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0941.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>76</v>
+        <v>76.05</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>255</v>
@@ -4486,7 +4486,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>中国移动</v>
       </c>
@@ -4515,11 +4515,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>1632606.916732</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>1633681.0002298499</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4542,11 +4542,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4566,7 +4566,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.1089843704945264</v>
+        <v>1.1090836000243451</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.924000370474751</v>
+        <v>24.926230516276409</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3660213319878825E-2</v>
+        <v>6.3654517650917758E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4805,10 +4805,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4816,22 +4816,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>50.161400569401103</v>
+        <v>50.188835590307953</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>87.245876114432747</v>
+        <v>87.293593929487074</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>59.013412434589533</v>
-      </c>
-      <c r="G29" s="313">
+        <v>59.045688929774066</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>75.86597922994153</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>75.907472982162673</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5814,15 +5814,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10165,11 +10165,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>-24147.507402388852</v>
+        <v>-24147.936570105318</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>1.017449272584608</v>
+        <v>1.0174495827062426</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11257,11 +11257,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.1089843704945264</v>
+        <v>1.1090836000243451</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4796.3574023888268</v>
+        <v>4796.7865701052924</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-0.95829663991660619</v>
+        <v>-0.95884130318038419</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-0.95829663991660619</v>
+        <v>-0.95884130318038419</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11458,7 +11458,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-0.95829663991660619</v>
+        <v>-0.95884130318038419</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11969,17 +11969,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0121970194825197E-2</v>
+        <v>4.0118380488658997E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0121970194825197E-2</v>
+        <v>4.0118380488658997E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0121970194825197E-2</v>
+        <v>4.0118380488658997E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12020,17 +12020,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3660213319878825E-2</v>
+        <v>6.3654517650917758E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3660213319878825E-2</v>
+        <v>6.3654517650917758E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3660213319878825E-2</v>
+        <v>6.3654517650917758E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12090,14 +12090,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>59.481467220102829</v>
+        <v>59.514452865191828</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>59.481467220102829</v>
+        <v>59.514452865191828</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12118,14 +12118,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>103.21482718192478</v>
+        <v>103.27127897373062</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>103.21482718192478</v>
+        <v>103.27127897373062</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12168,21 +12168,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>730564.14028272557</v>
+        <v>730969.27705174533</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>34.008721935729419</v>
+        <v>34.027581585367031</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>34.008721935729419</v>
+        <v>34.027581585367031</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>43.720654094909243</v>
+        <v>43.744899528763405</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12192,14 +12192,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-5102.3795712353558</v>
+        <v>-5105.7363999006411</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.23752248225807501</v>
+        <v>-0.23767874704903424</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12210,17 +12210,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-20585.812139590606</v>
+        <v>-20597.512416060788</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-0.95829663991660619</v>
+        <v>-0.95884130318038419</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-0.95829663991660619</v>
+        <v>-0.95884130318038419</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12232,23 +12232,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>27.890967391521531</v>
+        <v>27.906402304866972</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>32.812902813554743</v>
+        <v>32.831061535137614</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>32.812902813554743</v>
+        <v>32.831061535137614</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>32.812902813554743</v>
+        <v>32.831061535137614</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>42.524834972734567</v>
+        <v>42.548379478533988</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12287,23 +12287,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>50.161400569401103</v>
+        <v>50.188835590307953</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>59.013412434589533</v>
+        <v>59.045688929774066</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>59.013412434589533</v>
+        <v>59.045688929774066</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>59.013412434589533</v>
+        <v>59.045688929774066</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>75.86597922994153</v>
+        <v>75.907472982162673</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12342,23 +12342,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>39.026183980461319</v>
+        <v>39.047618947587466</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>45.913157624072142</v>
+        <v>45.93837523245584</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>45.913157624072142</v>
+        <v>45.93837523245584</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>45.913157624072142</v>
+        <v>45.93837523245584</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>59.195407101338049</v>
+        <v>59.227926230348331</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CADF2061-8916-437A-AC12-00BDADA73821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{259AB4D8-15A0-4CA7-8579-2D1B426DD825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2598,31 +2598,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3654517650917758E-2</v>
+        <v>6.4972475399720717E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4456,27 +4456,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0941.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>76.05</v>
+        <v>74.3</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>255</v>
@@ -4486,40 +4486,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>中国移动</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>21481669957</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>1633681.0002298499</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>1596088.0778050998</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4542,11 +4542,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4566,7 +4566,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.1090836000243451</v>
+        <v>1.086585991371918</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.926230516276409</v>
+        <v>24.420605350307795</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3654517650917758E-2</v>
+        <v>6.4972475399720717E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4805,10 +4805,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4816,22 +4816,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>50.188835590307953</v>
+        <v>50.297694036830698</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>87.293593929487074</v>
+        <v>87.482931755614814</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>59.045688929774066</v>
-      </c>
-      <c r="G29" s="314">
+        <v>59.17375769038906</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>75.907472982162673</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>76.072114570099842</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5814,15 +5814,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10165,11 +10165,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>-24147.936570105318</v>
+        <v>-24050.634412683568</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>1.0174495827062426</v>
+        <v>1.0173792710239795</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11257,11 +11257,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.1090836000243451</v>
+        <v>1.086585991371918</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4796.7865701052924</v>
+        <v>4699.4844126835451</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11297,7 +11297,7 @@
         <f>I15+I34</f>
         <v>95670</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11308,11 +11308,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11324,11 +11324,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-0.95884130318038419</v>
+        <v>-0.95617307602835444</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-0.95884130318038419</v>
+        <v>-0.95617307602835444</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11458,7 +11458,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-0.95884130318038419</v>
+        <v>-0.95617307602835444</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11969,17 +11969,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0118380488658997E-2</v>
+        <v>4.0949025859729399E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0118380488658997E-2</v>
+        <v>4.0949025859729399E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0118380488658997E-2</v>
+        <v>4.0949025859729399E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12020,17 +12020,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3654517650917758E-2</v>
+        <v>6.4972475399720717E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3654517650917758E-2</v>
+        <v>6.4972475399720717E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3654517650917758E-2</v>
+        <v>6.4972475399720717E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12090,14 +12090,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>59.514452865191828</v>
+        <v>59.538651022487272</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>59.514452865191828</v>
+        <v>59.538651022487272</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12118,14 +12118,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>103.27127897373062</v>
+        <v>103.495272036476</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>103.27127897373062</v>
+        <v>103.495272036476</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12168,21 +12168,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>730969.27705174533</v>
+        <v>731266.48401060479</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>34.027581585367031</v>
+        <v>34.041416960338076</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>34.027581585367031</v>
+        <v>34.041416960338076</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>43.744899528763405</v>
+        <v>43.762685896758221</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12192,14 +12192,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-5105.7363999006411</v>
+        <v>-4988.2473966156167</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.23767874704903424</v>
+        <v>-0.23220947936546016</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12210,17 +12210,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-20597.512416060788</v>
+        <v>-20540.194441010579</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-0.95884130318038419</v>
+        <v>-0.95617307602835444</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-0.95884130318038419</v>
+        <v>-0.95617307602835444</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12232,23 +12232,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>27.906402304866972</v>
+        <v>27.925079244202621</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>32.831061535137614</v>
+        <v>32.85303440494426</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>32.831061535137614</v>
+        <v>32.85303440494426</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>32.831061535137614</v>
+        <v>32.85303440494426</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>42.548379478533988</v>
+        <v>42.574303341364406</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12287,23 +12287,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>50.188835590307953</v>
+        <v>50.297694036830698</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>59.045688929774066</v>
+        <v>59.17375769038906</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>59.045688929774066</v>
+        <v>59.17375769038906</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>59.045688929774066</v>
+        <v>59.17375769038906</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>75.907472982162673</v>
+        <v>76.072114570099842</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12342,23 +12342,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>39.047618947587466</v>
+        <v>39.111386640516656</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>45.93837523245584</v>
+        <v>46.01339604766666</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>45.93837523245584</v>
+        <v>46.01339604766666</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>45.93837523245584</v>
+        <v>46.01339604766666</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>59.227926230348331</v>
+        <v>59.323208955732127</v>
       </c>
       <c r="K106" s="75"/>
     </row>
